--- a/Excel/15_ability.xlsx
+++ b/Excel/15_ability.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hoon\EEA\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047DAB43-2EC7-441C-832C-C68ED83456D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E87B2C7-3105-44F8-A762-9C4906BF3E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39900" yWindow="1155" windowWidth="27600" windowHeight="13530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40050" yWindow="1515" windowWidth="31680" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -258,7 +258,22 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{7237987E-A685-4A93-946D-C212B10FC635}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -276,7 +291,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BG1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="BI1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -309,7 +324,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="62">
   <si>
     <t>No</t>
   </si>
@@ -431,14 +446,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>0.2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>11</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>Prefabs/Ability/ASlashBody.prefab</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -490,13 +497,69 @@
     <t>16000016/16000017/16000018/16000019/16000020/16000021/16000022/16000023/16000024/16000025</t>
   </si>
   <si>
+    <t>16000001/16000002/16000003/16000004/16000005/16000006/16000007/16000008/16000009/16000010</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>15000004</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>16000031/16000032/16000033/16000034/16000035/16000036/16000037/16000038/16000039/16000040</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/Temp/Sprites/UI.png[Select 9]</t>
+  </si>
+  <si>
+    <t>프리즌서클</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>base_range</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>16000061/16000062/16000063/16000064/16000065/16000066/16000067/16000068/16000069/16000070</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Ability/AFreezeCircle.prefab</t>
+  </si>
+  <si>
+    <t>15000008</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>base_tick</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.33</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>16000076/16000077/16000078/16000079/16000080/16000081/16000082/16000083/16000084/16000085</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>16000091/16000092/16000093/16000094/16000095/16000096/16000097/16000098/16000099/16000100</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>16000046/16000047/16000048/16000049/16000050/16000051/16000052/16000053/16000054/16000055</t>
-  </si>
-  <si>
-    <t>16000001/16000002/16000003/16000004/16000005/16000006/16000007/16000008/16000009/16000010</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -924,13 +987,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CC1000"/>
+  <dimension ref="A1:CE1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J3" sqref="J3"/>
+      <selection pane="bottomRight" activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -939,29 +1002,27 @@
     <col min="2" max="2" width="28.140625" customWidth="1"/>
     <col min="3" max="3" width="22.140625" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="9" width="17.85546875" customWidth="1"/>
-    <col min="10" max="10" width="109.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="43.42578125" customWidth="1"/>
-    <col min="13" max="13" width="37.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="45.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="24.5703125" customWidth="1"/>
-    <col min="18" max="18" width="37.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="41.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.5703125" customWidth="1"/>
-    <col min="21" max="21" width="13.5703125" customWidth="1"/>
-    <col min="22" max="22" width="19.42578125" customWidth="1"/>
-    <col min="23" max="23" width="92.140625" style="12" customWidth="1"/>
-    <col min="24" max="25" width="11.42578125" customWidth="1"/>
-    <col min="26" max="27" width="21.42578125" customWidth="1"/>
-    <col min="28" max="30" width="8.42578125" customWidth="1"/>
-    <col min="31" max="31" width="10.7109375" customWidth="1"/>
-    <col min="32" max="32" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="40" width="21.42578125" customWidth="1"/>
-    <col min="41" max="41" width="14.140625" customWidth="1"/>
-    <col min="42" max="42" width="10.28515625" customWidth="1"/>
-    <col min="43" max="43" width="20.5703125" customWidth="1"/>
-    <col min="44" max="44" width="21.42578125" customWidth="1"/>
+    <col min="5" max="11" width="17.85546875" customWidth="1"/>
+    <col min="12" max="12" width="109.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="43.42578125" customWidth="1"/>
+    <col min="15" max="15" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="45.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="24.5703125" customWidth="1"/>
+    <col min="20" max="20" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.5703125" customWidth="1"/>
+    <col min="23" max="23" width="13.5703125" customWidth="1"/>
+    <col min="24" max="24" width="19.42578125" customWidth="1"/>
+    <col min="25" max="25" width="92.140625" style="12" customWidth="1"/>
+    <col min="26" max="27" width="11.42578125" customWidth="1"/>
+    <col min="28" max="29" width="21.42578125" customWidth="1"/>
+    <col min="30" max="32" width="8.42578125" customWidth="1"/>
+    <col min="33" max="33" width="10.7109375" customWidth="1"/>
+    <col min="34" max="34" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="42" width="21.42578125" customWidth="1"/>
+    <col min="43" max="43" width="14.140625" customWidth="1"/>
+    <col min="44" max="44" width="10.28515625" customWidth="1"/>
     <col min="45" max="45" width="20.5703125" customWidth="1"/>
     <col min="46" max="46" width="21.42578125" customWidth="1"/>
     <col min="47" max="47" width="20.5703125" customWidth="1"/>
@@ -970,8 +1031,8 @@
     <col min="50" max="50" width="21.42578125" customWidth="1"/>
     <col min="51" max="51" width="20.5703125" customWidth="1"/>
     <col min="52" max="52" width="21.42578125" customWidth="1"/>
-    <col min="53" max="53" width="19.7109375" customWidth="1"/>
-    <col min="54" max="54" width="20.42578125" customWidth="1"/>
+    <col min="53" max="53" width="20.5703125" customWidth="1"/>
+    <col min="54" max="54" width="21.42578125" customWidth="1"/>
     <col min="55" max="55" width="19.7109375" customWidth="1"/>
     <col min="56" max="56" width="20.42578125" customWidth="1"/>
     <col min="57" max="57" width="19.7109375" customWidth="1"/>
@@ -979,28 +1040,30 @@
     <col min="59" max="59" width="19.7109375" customWidth="1"/>
     <col min="60" max="60" width="20.42578125" customWidth="1"/>
     <col min="61" max="61" width="19.7109375" customWidth="1"/>
-    <col min="62" max="63" width="20.42578125" customWidth="1"/>
-    <col min="64" max="64" width="13" customWidth="1"/>
-    <col min="65" max="65" width="12.5703125" customWidth="1"/>
+    <col min="62" max="62" width="20.42578125" customWidth="1"/>
+    <col min="63" max="63" width="19.7109375" customWidth="1"/>
+    <col min="64" max="65" width="20.42578125" customWidth="1"/>
     <col min="66" max="66" width="13" customWidth="1"/>
     <col min="67" max="67" width="12.5703125" customWidth="1"/>
     <col min="68" max="68" width="13" customWidth="1"/>
     <col min="69" max="69" width="12.5703125" customWidth="1"/>
     <col min="70" max="70" width="13" customWidth="1"/>
     <col min="71" max="71" width="12.5703125" customWidth="1"/>
-    <col min="72" max="72" width="17.42578125" customWidth="1"/>
-    <col min="73" max="73" width="18.140625" customWidth="1"/>
+    <col min="72" max="72" width="13" customWidth="1"/>
+    <col min="73" max="73" width="12.5703125" customWidth="1"/>
     <col min="74" max="74" width="17.42578125" customWidth="1"/>
     <col min="75" max="75" width="18.140625" customWidth="1"/>
     <col min="76" max="76" width="17.42578125" customWidth="1"/>
     <col min="77" max="77" width="18.140625" customWidth="1"/>
     <col min="78" max="78" width="17.42578125" customWidth="1"/>
     <col min="79" max="79" width="18.140625" customWidth="1"/>
-    <col min="80" max="80" width="84.7109375" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="13.85546875" customWidth="1"/>
+    <col min="80" max="80" width="17.42578125" customWidth="1"/>
+    <col min="81" max="81" width="18.140625" customWidth="1"/>
+    <col min="82" max="82" width="84.7109375" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:81" ht="12.75" customHeight="1">
+    <row r="1" spans="1:83" ht="12.75" customHeight="1">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1029,22 +1092,26 @@
         <v>16</v>
       </c>
       <c r="J1" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="M1" s="13" t="s">
+      <c r="O1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="P1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
@@ -1065,8 +1132,8 @@
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
       <c r="AJ1" s="1"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
       <c r="AM1" s="2"/>
       <c r="AN1" s="2"/>
       <c r="AO1" s="2"/>
@@ -1087,8 +1154,8 @@
       <c r="BD1" s="2"/>
       <c r="BE1" s="2"/>
       <c r="BF1" s="2"/>
-      <c r="BG1" s="3"/>
-      <c r="BH1" s="3"/>
+      <c r="BG1" s="2"/>
+      <c r="BH1" s="2"/>
       <c r="BI1" s="3"/>
       <c r="BJ1" s="3"/>
       <c r="BK1" s="3"/>
@@ -1103,10 +1170,12 @@
       <c r="BT1" s="3"/>
       <c r="BU1" s="3"/>
       <c r="BV1" s="3"/>
-      <c r="BW1" s="1"/>
+      <c r="BW1" s="3"/>
       <c r="BX1" s="3"/>
-    </row>
-    <row r="2" spans="1:81" ht="12.75" customHeight="1">
+      <c r="BY1" s="1"/>
+      <c r="BZ1" s="3"/>
+    </row>
+    <row r="2" spans="1:83" ht="12.75" customHeight="1">
       <c r="A2" s="13" t="s">
         <v>3</v>
       </c>
@@ -1135,22 +1204,26 @@
         <v>7</v>
       </c>
       <c r="J2" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="M2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="N2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="O2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="P2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
@@ -1193,8 +1266,8 @@
       <c r="BD2" s="4"/>
       <c r="BE2" s="4"/>
       <c r="BF2" s="4"/>
-      <c r="BG2" s="5"/>
-      <c r="BH2" s="5"/>
+      <c r="BG2" s="4"/>
+      <c r="BH2" s="4"/>
       <c r="BI2" s="5"/>
       <c r="BJ2" s="5"/>
       <c r="BK2" s="5"/>
@@ -1209,12 +1282,14 @@
       <c r="BT2" s="5"/>
       <c r="BU2" s="5"/>
       <c r="BV2" s="5"/>
-      <c r="BW2" s="4"/>
+      <c r="BW2" s="5"/>
       <c r="BX2" s="5"/>
-    </row>
-    <row r="3" spans="1:81" ht="16.5">
+      <c r="BY2" s="4"/>
+      <c r="BZ2" s="5"/>
+    </row>
+    <row r="3" spans="1:83" ht="16.5">
       <c r="A3" s="17">
-        <f t="shared" ref="A3:A9" si="0">ROW()-2</f>
+        <f t="shared" ref="A3:A10" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="18">
@@ -1241,27 +1316,31 @@
       <c r="I3" s="13">
         <v>8</v>
       </c>
-      <c r="J3" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="K3" s="6">
+      <c r="J3" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" s="6">
         <v>99000001</v>
       </c>
-      <c r="L3" s="6">
+      <c r="N3" s="6">
         <v>99000001</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="O3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="13" t="s">
+      <c r="P3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
-      <c r="R3" s="11"/>
+      <c r="R3" s="1"/>
       <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
+      <c r="T3" s="11"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
@@ -1300,8 +1379,8 @@
       <c r="BD3" s="1"/>
       <c r="BE3" s="1"/>
       <c r="BF3" s="1"/>
-      <c r="BG3" s="8"/>
-      <c r="BH3" s="8"/>
+      <c r="BG3" s="1"/>
+      <c r="BH3" s="1"/>
       <c r="BI3" s="8"/>
       <c r="BJ3" s="8"/>
       <c r="BK3" s="8"/>
@@ -1316,10 +1395,12 @@
       <c r="BT3" s="8"/>
       <c r="BU3" s="8"/>
       <c r="BV3" s="8"/>
-      <c r="BW3" s="1"/>
+      <c r="BW3" s="8"/>
       <c r="BX3" s="8"/>
-    </row>
-    <row r="4" spans="1:81" ht="16.5">
+      <c r="BY3" s="1"/>
+      <c r="BZ3" s="8"/>
+    </row>
+    <row r="4" spans="1:83" ht="16.5">
       <c r="A4" s="17">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1348,27 +1429,31 @@
       <c r="I4" s="13">
         <v>4</v>
       </c>
-      <c r="J4" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4" s="6">
+      <c r="J4" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4" s="6">
         <v>99000002</v>
       </c>
-      <c r="L4" s="6">
+      <c r="N4" s="6">
         <v>99000002</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="O4" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="N4" s="13" t="s">
+      <c r="P4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
-      <c r="R4" s="11"/>
+      <c r="R4" s="1"/>
       <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
+      <c r="T4" s="11"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
@@ -1407,8 +1492,8 @@
       <c r="BD4" s="1"/>
       <c r="BE4" s="1"/>
       <c r="BF4" s="1"/>
-      <c r="BG4" s="8"/>
-      <c r="BH4" s="8"/>
+      <c r="BG4" s="1"/>
+      <c r="BH4" s="1"/>
       <c r="BI4" s="8"/>
       <c r="BJ4" s="8"/>
       <c r="BK4" s="8"/>
@@ -1423,10 +1508,12 @@
       <c r="BT4" s="8"/>
       <c r="BU4" s="8"/>
       <c r="BV4" s="8"/>
-      <c r="BW4" s="1"/>
+      <c r="BW4" s="8"/>
       <c r="BX4" s="8"/>
-    </row>
-    <row r="5" spans="1:81" ht="16.5">
+      <c r="BY4" s="1"/>
+      <c r="BZ4" s="8"/>
+    </row>
+    <row r="5" spans="1:83" ht="16.5">
       <c r="A5" s="17">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1456,26 +1543,30 @@
         <v>26</v>
       </c>
       <c r="J5" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="K5" s="6">
+      <c r="M5" s="6">
         <v>99000003</v>
       </c>
-      <c r="L5" s="6">
+      <c r="N5" s="6">
         <v>99000003</v>
       </c>
-      <c r="M5" s="13" t="s">
+      <c r="O5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="N5" s="13" t="s">
+      <c r="P5" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
-      <c r="R5" s="11"/>
+      <c r="R5" s="1"/>
       <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
+      <c r="T5" s="11"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
@@ -1514,8 +1605,8 @@
       <c r="BD5" s="1"/>
       <c r="BE5" s="1"/>
       <c r="BF5" s="1"/>
-      <c r="BG5" s="8"/>
-      <c r="BH5" s="8"/>
+      <c r="BG5" s="1"/>
+      <c r="BH5" s="1"/>
       <c r="BI5" s="8"/>
       <c r="BJ5" s="8"/>
       <c r="BK5" s="8"/>
@@ -1530,16 +1621,18 @@
       <c r="BT5" s="8"/>
       <c r="BU5" s="8"/>
       <c r="BV5" s="8"/>
-      <c r="BW5" s="1"/>
+      <c r="BW5" s="8"/>
       <c r="BX5" s="8"/>
-    </row>
-    <row r="6" spans="1:81" ht="16.5">
+      <c r="BY5" s="1"/>
+      <c r="BZ5" s="8"/>
+    </row>
+    <row r="6" spans="1:83" ht="16.5">
       <c r="A6" s="17">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="18">
-        <v>15000004</v>
+      <c r="B6" s="18" t="s">
+        <v>46</v>
       </c>
       <c r="C6" s="19" t="s">
         <v>29</v>
@@ -1554,35 +1647,39 @@
         <v>30</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="H6" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="M6" s="6">
+        <v>99000004</v>
+      </c>
+      <c r="N6" s="6">
+        <v>99000004</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="P6" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="K6" s="6">
-        <v>99000004</v>
-      </c>
-      <c r="L6" s="6">
-        <v>99000004</v>
-      </c>
-      <c r="M6" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="N6" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
-      <c r="R6" s="11"/>
+      <c r="R6" s="1"/>
       <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
+      <c r="T6" s="11"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
@@ -1621,8 +1718,8 @@
       <c r="BD6" s="1"/>
       <c r="BE6" s="1"/>
       <c r="BF6" s="1"/>
-      <c r="BG6" s="8"/>
-      <c r="BH6" s="8"/>
+      <c r="BG6" s="1"/>
+      <c r="BH6" s="1"/>
       <c r="BI6" s="8"/>
       <c r="BJ6" s="8"/>
       <c r="BK6" s="8"/>
@@ -1637,10 +1734,12 @@
       <c r="BT6" s="8"/>
       <c r="BU6" s="8"/>
       <c r="BV6" s="8"/>
-      <c r="BW6" s="1"/>
+      <c r="BW6" s="8"/>
       <c r="BX6" s="8"/>
-    </row>
-    <row r="7" spans="1:81" ht="16.5">
+      <c r="BY6" s="1"/>
+      <c r="BZ6" s="8"/>
+    </row>
+    <row r="7" spans="1:83" ht="16.5">
       <c r="A7" s="17">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1649,7 +1748,7 @@
         <v>15000005</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>24</v>
@@ -1667,25 +1766,31 @@
         <v>30</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" s="13"/>
-      <c r="K7" s="6">
+        <v>58</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="M7" s="6">
         <v>99000005</v>
       </c>
-      <c r="L7" s="6">
+      <c r="N7" s="6">
         <v>99000005</v>
       </c>
-      <c r="M7" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="N7" s="13"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
+      <c r="O7" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="13"/>
       <c r="Q7" s="1"/>
-      <c r="R7" s="11"/>
+      <c r="R7" s="1"/>
       <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
+      <c r="T7" s="11"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
@@ -1724,8 +1829,8 @@
       <c r="BD7" s="1"/>
       <c r="BE7" s="1"/>
       <c r="BF7" s="1"/>
-      <c r="BG7" s="8"/>
-      <c r="BH7" s="8"/>
+      <c r="BG7" s="1"/>
+      <c r="BH7" s="1"/>
       <c r="BI7" s="8"/>
       <c r="BJ7" s="8"/>
       <c r="BK7" s="8"/>
@@ -1740,10 +1845,12 @@
       <c r="BT7" s="8"/>
       <c r="BU7" s="8"/>
       <c r="BV7" s="8"/>
-      <c r="BW7" s="1"/>
+      <c r="BW7" s="8"/>
       <c r="BX7" s="8"/>
-    </row>
-    <row r="8" spans="1:81" ht="16.5">
+      <c r="BY7" s="1"/>
+      <c r="BZ7" s="8"/>
+    </row>
+    <row r="8" spans="1:83" ht="16.5">
       <c r="A8" s="17">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1752,13 +1859,13 @@
         <v>15000006</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>24</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>30</v>
@@ -1770,25 +1877,31 @@
         <v>30</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" s="13"/>
-      <c r="K8" s="6">
+        <v>58</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="M8" s="6">
         <v>99000006</v>
       </c>
-      <c r="L8" s="6">
+      <c r="N8" s="6">
         <v>99000006</v>
       </c>
-      <c r="M8" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="N8" s="13"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
+      <c r="O8" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="P8" s="13"/>
       <c r="Q8" s="1"/>
-      <c r="R8" s="11"/>
+      <c r="R8" s="1"/>
       <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
+      <c r="T8" s="11"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
@@ -1827,8 +1940,8 @@
       <c r="BD8" s="1"/>
       <c r="BE8" s="1"/>
       <c r="BF8" s="1"/>
-      <c r="BG8" s="8"/>
-      <c r="BH8" s="8"/>
+      <c r="BG8" s="1"/>
+      <c r="BH8" s="1"/>
       <c r="BI8" s="8"/>
       <c r="BJ8" s="8"/>
       <c r="BK8" s="8"/>
@@ -1843,10 +1956,12 @@
       <c r="BT8" s="8"/>
       <c r="BU8" s="8"/>
       <c r="BV8" s="8"/>
-      <c r="BW8" s="1"/>
+      <c r="BW8" s="8"/>
       <c r="BX8" s="8"/>
-    </row>
-    <row r="9" spans="1:81" ht="16.5">
+      <c r="BY8" s="1"/>
+      <c r="BZ8" s="8"/>
+    </row>
+    <row r="9" spans="1:83" ht="16.5">
       <c r="A9" s="17">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1855,10 +1970,10 @@
         <v>15000007</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>31</v>
@@ -1873,25 +1988,29 @@
         <v>30</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" s="13"/>
-      <c r="K9" s="6">
+        <v>40</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="13"/>
+      <c r="M9" s="6">
         <v>99000007</v>
       </c>
-      <c r="L9" s="6">
+      <c r="N9" s="6">
         <v>99000007</v>
       </c>
-      <c r="M9" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="N9" s="13"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
+      <c r="O9" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="P9" s="13"/>
       <c r="Q9" s="1"/>
-      <c r="R9" s="11"/>
+      <c r="R9" s="1"/>
       <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
+      <c r="T9" s="11"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
@@ -1930,8 +2049,8 @@
       <c r="BD9" s="1"/>
       <c r="BE9" s="1"/>
       <c r="BF9" s="1"/>
-      <c r="BG9" s="8"/>
-      <c r="BH9" s="8"/>
+      <c r="BG9" s="1"/>
+      <c r="BH9" s="1"/>
       <c r="BI9" s="8"/>
       <c r="BJ9" s="8"/>
       <c r="BK9" s="8"/>
@@ -1946,33 +2065,68 @@
       <c r="BT9" s="8"/>
       <c r="BU9" s="8"/>
       <c r="BV9" s="8"/>
-      <c r="BW9" s="1"/>
+      <c r="BW9" s="8"/>
       <c r="BX9" s="8"/>
-    </row>
-    <row r="10" spans="1:81" ht="12.75" customHeight="1">
-      <c r="A10" s="2"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="1"/>
+      <c r="BY9" s="1"/>
+      <c r="BZ9" s="8"/>
+    </row>
+    <row r="10" spans="1:83" ht="16.5">
+      <c r="A10" s="17">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="13">
+        <v>1</v>
+      </c>
+      <c r="E10" s="13">
+        <v>0</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="M10" s="6">
+        <v>99000008</v>
+      </c>
+      <c r="N10" s="6">
+        <v>99000008</v>
+      </c>
+      <c r="O10" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="P10" s="13" t="s">
+        <v>54</v>
+      </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
+      <c r="T10" s="11"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
-      <c r="W10" s="11"/>
+      <c r="W10" s="1"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
@@ -2010,9 +2164,9 @@
       <c r="BF10" s="1"/>
       <c r="BG10" s="1"/>
       <c r="BH10" s="1"/>
-      <c r="BI10" s="1"/>
-      <c r="BJ10" s="1"/>
-      <c r="BK10" s="1"/>
+      <c r="BI10" s="8"/>
+      <c r="BJ10" s="8"/>
+      <c r="BK10" s="8"/>
       <c r="BL10" s="8"/>
       <c r="BM10" s="8"/>
       <c r="BN10" s="8"/>
@@ -2026,13 +2180,10 @@
       <c r="BV10" s="8"/>
       <c r="BW10" s="8"/>
       <c r="BX10" s="8"/>
-      <c r="BY10" s="8"/>
+      <c r="BY10" s="1"/>
       <c r="BZ10" s="8"/>
-      <c r="CA10" s="8"/>
-      <c r="CB10" s="1"/>
-      <c r="CC10" s="8"/>
-    </row>
-    <row r="11" spans="1:81" ht="12.75" customHeight="1">
+    </row>
+    <row r="11" spans="1:83" ht="12.75" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
@@ -2048,16 +2199,16 @@
       <c r="M11" s="13"/>
       <c r="N11" s="13"/>
       <c r="O11" s="13"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
-      <c r="W11" s="11"/>
+      <c r="W11" s="1"/>
       <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
+      <c r="Y11" s="11"/>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
@@ -2096,8 +2247,8 @@
       <c r="BI11" s="1"/>
       <c r="BJ11" s="1"/>
       <c r="BK11" s="1"/>
-      <c r="BL11" s="8"/>
-      <c r="BM11" s="8"/>
+      <c r="BL11" s="1"/>
+      <c r="BM11" s="1"/>
       <c r="BN11" s="8"/>
       <c r="BO11" s="8"/>
       <c r="BP11" s="8"/>
@@ -2112,10 +2263,12 @@
       <c r="BY11" s="8"/>
       <c r="BZ11" s="8"/>
       <c r="CA11" s="8"/>
-      <c r="CB11" s="1"/>
+      <c r="CB11" s="8"/>
       <c r="CC11" s="8"/>
-    </row>
-    <row r="12" spans="1:81" ht="12.75" customHeight="1">
+      <c r="CD11" s="1"/>
+      <c r="CE11" s="8"/>
+    </row>
+    <row r="12" spans="1:83" ht="12.75" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="6"/>
       <c r="C12" s="7"/>
@@ -2131,16 +2284,16 @@
       <c r="M12" s="13"/>
       <c r="N12" s="13"/>
       <c r="O12" s="13"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
-      <c r="W12" s="11"/>
+      <c r="W12" s="1"/>
       <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
+      <c r="Y12" s="11"/>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
@@ -2179,8 +2332,8 @@
       <c r="BI12" s="1"/>
       <c r="BJ12" s="1"/>
       <c r="BK12" s="1"/>
-      <c r="BL12" s="8"/>
-      <c r="BM12" s="8"/>
+      <c r="BL12" s="1"/>
+      <c r="BM12" s="1"/>
       <c r="BN12" s="8"/>
       <c r="BO12" s="8"/>
       <c r="BP12" s="8"/>
@@ -2195,10 +2348,12 @@
       <c r="BY12" s="8"/>
       <c r="BZ12" s="8"/>
       <c r="CA12" s="8"/>
-      <c r="CB12" s="1"/>
+      <c r="CB12" s="8"/>
       <c r="CC12" s="8"/>
-    </row>
-    <row r="13" spans="1:81" ht="12.75" customHeight="1">
+      <c r="CD12" s="1"/>
+      <c r="CE12" s="8"/>
+    </row>
+    <row r="13" spans="1:83" ht="12.75" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
@@ -2214,16 +2369,16 @@
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
       <c r="O13" s="13"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
-      <c r="W13" s="11"/>
+      <c r="W13" s="1"/>
       <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
+      <c r="Y13" s="11"/>
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
@@ -2262,8 +2417,8 @@
       <c r="BI13" s="1"/>
       <c r="BJ13" s="1"/>
       <c r="BK13" s="1"/>
-      <c r="BL13" s="8"/>
-      <c r="BM13" s="8"/>
+      <c r="BL13" s="1"/>
+      <c r="BM13" s="1"/>
       <c r="BN13" s="8"/>
       <c r="BO13" s="8"/>
       <c r="BP13" s="8"/>
@@ -2278,10 +2433,12 @@
       <c r="BY13" s="8"/>
       <c r="BZ13" s="8"/>
       <c r="CA13" s="8"/>
-      <c r="CB13" s="1"/>
+      <c r="CB13" s="8"/>
       <c r="CC13" s="8"/>
-    </row>
-    <row r="14" spans="1:81" ht="12.75" customHeight="1">
+      <c r="CD13" s="1"/>
+      <c r="CE13" s="8"/>
+    </row>
+    <row r="14" spans="1:83" ht="12.75" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
@@ -2297,16 +2454,16 @@
       <c r="M14" s="13"/>
       <c r="N14" s="13"/>
       <c r="O14" s="13"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
-      <c r="W14" s="11"/>
+      <c r="W14" s="1"/>
       <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
+      <c r="Y14" s="11"/>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
@@ -2345,8 +2502,8 @@
       <c r="BI14" s="1"/>
       <c r="BJ14" s="1"/>
       <c r="BK14" s="1"/>
-      <c r="BL14" s="8"/>
-      <c r="BM14" s="8"/>
+      <c r="BL14" s="1"/>
+      <c r="BM14" s="1"/>
       <c r="BN14" s="8"/>
       <c r="BO14" s="8"/>
       <c r="BP14" s="8"/>
@@ -2361,10 +2518,12 @@
       <c r="BY14" s="8"/>
       <c r="BZ14" s="8"/>
       <c r="CA14" s="8"/>
-      <c r="CB14" s="1"/>
+      <c r="CB14" s="8"/>
       <c r="CC14" s="8"/>
-    </row>
-    <row r="15" spans="1:81" ht="12.75" customHeight="1">
+      <c r="CD14" s="1"/>
+      <c r="CE14" s="8"/>
+    </row>
+    <row r="15" spans="1:83" ht="12.75" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
@@ -2380,16 +2539,16 @@
       <c r="M15" s="13"/>
       <c r="N15" s="13"/>
       <c r="O15" s="13"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
-      <c r="W15" s="11"/>
+      <c r="W15" s="1"/>
       <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
+      <c r="Y15" s="11"/>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
@@ -2428,8 +2587,8 @@
       <c r="BI15" s="1"/>
       <c r="BJ15" s="1"/>
       <c r="BK15" s="1"/>
-      <c r="BL15" s="8"/>
-      <c r="BM15" s="8"/>
+      <c r="BL15" s="1"/>
+      <c r="BM15" s="1"/>
       <c r="BN15" s="8"/>
       <c r="BO15" s="8"/>
       <c r="BP15" s="8"/>
@@ -2444,10 +2603,12 @@
       <c r="BY15" s="8"/>
       <c r="BZ15" s="8"/>
       <c r="CA15" s="8"/>
-      <c r="CB15" s="1"/>
+      <c r="CB15" s="8"/>
       <c r="CC15" s="8"/>
-    </row>
-    <row r="16" spans="1:81" ht="12.75" customHeight="1">
+      <c r="CD15" s="1"/>
+      <c r="CE15" s="8"/>
+    </row>
+    <row r="16" spans="1:83" ht="12.75" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
@@ -2463,16 +2624,16 @@
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>
       <c r="O16" s="13"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
-      <c r="W16" s="11"/>
+      <c r="W16" s="1"/>
       <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
+      <c r="Y16" s="11"/>
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
@@ -2511,8 +2672,8 @@
       <c r="BI16" s="1"/>
       <c r="BJ16" s="1"/>
       <c r="BK16" s="1"/>
-      <c r="BL16" s="8"/>
-      <c r="BM16" s="8"/>
+      <c r="BL16" s="1"/>
+      <c r="BM16" s="1"/>
       <c r="BN16" s="8"/>
       <c r="BO16" s="8"/>
       <c r="BP16" s="8"/>
@@ -2527,10 +2688,12 @@
       <c r="BY16" s="8"/>
       <c r="BZ16" s="8"/>
       <c r="CA16" s="8"/>
-      <c r="CB16" s="1"/>
+      <c r="CB16" s="8"/>
       <c r="CC16" s="8"/>
-    </row>
-    <row r="17" spans="1:81" ht="12.75" customHeight="1">
+      <c r="CD16" s="1"/>
+      <c r="CE16" s="8"/>
+    </row>
+    <row r="17" spans="1:83" ht="12.75" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
@@ -2546,16 +2709,16 @@
       <c r="M17" s="13"/>
       <c r="N17" s="13"/>
       <c r="O17" s="13"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
-      <c r="W17" s="11"/>
+      <c r="W17" s="1"/>
       <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
+      <c r="Y17" s="11"/>
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
@@ -2594,8 +2757,8 @@
       <c r="BI17" s="1"/>
       <c r="BJ17" s="1"/>
       <c r="BK17" s="1"/>
-      <c r="BL17" s="8"/>
-      <c r="BM17" s="8"/>
+      <c r="BL17" s="1"/>
+      <c r="BM17" s="1"/>
       <c r="BN17" s="8"/>
       <c r="BO17" s="8"/>
       <c r="BP17" s="8"/>
@@ -2610,10 +2773,12 @@
       <c r="BY17" s="8"/>
       <c r="BZ17" s="8"/>
       <c r="CA17" s="8"/>
-      <c r="CB17" s="1"/>
+      <c r="CB17" s="8"/>
       <c r="CC17" s="8"/>
-    </row>
-    <row r="18" spans="1:81" ht="12.75" customHeight="1">
+      <c r="CD17" s="1"/>
+      <c r="CE17" s="8"/>
+    </row>
+    <row r="18" spans="1:83" ht="12.75" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="6"/>
       <c r="C18" s="7"/>
@@ -2629,16 +2794,16 @@
       <c r="M18" s="13"/>
       <c r="N18" s="13"/>
       <c r="O18" s="13"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
-      <c r="W18" s="11"/>
+      <c r="W18" s="1"/>
       <c r="X18" s="1"/>
-      <c r="Y18" s="1"/>
+      <c r="Y18" s="11"/>
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
@@ -2677,8 +2842,8 @@
       <c r="BI18" s="1"/>
       <c r="BJ18" s="1"/>
       <c r="BK18" s="1"/>
-      <c r="BL18" s="8"/>
-      <c r="BM18" s="8"/>
+      <c r="BL18" s="1"/>
+      <c r="BM18" s="1"/>
       <c r="BN18" s="8"/>
       <c r="BO18" s="8"/>
       <c r="BP18" s="8"/>
@@ -2693,10 +2858,12 @@
       <c r="BY18" s="8"/>
       <c r="BZ18" s="8"/>
       <c r="CA18" s="8"/>
-      <c r="CB18" s="1"/>
+      <c r="CB18" s="8"/>
       <c r="CC18" s="8"/>
-    </row>
-    <row r="19" spans="1:81" ht="12.75" customHeight="1">
+      <c r="CD18" s="1"/>
+      <c r="CE18" s="8"/>
+    </row>
+    <row r="19" spans="1:83" ht="12.75" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="6"/>
       <c r="C19" s="7"/>
@@ -2712,16 +2879,16 @@
       <c r="M19" s="13"/>
       <c r="N19" s="13"/>
       <c r="O19" s="13"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
-      <c r="W19" s="11"/>
+      <c r="W19" s="1"/>
       <c r="X19" s="1"/>
-      <c r="Y19" s="1"/>
+      <c r="Y19" s="11"/>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
@@ -2760,8 +2927,8 @@
       <c r="BI19" s="1"/>
       <c r="BJ19" s="1"/>
       <c r="BK19" s="1"/>
-      <c r="BL19" s="8"/>
-      <c r="BM19" s="8"/>
+      <c r="BL19" s="1"/>
+      <c r="BM19" s="1"/>
       <c r="BN19" s="8"/>
       <c r="BO19" s="8"/>
       <c r="BP19" s="8"/>
@@ -2776,10 +2943,12 @@
       <c r="BY19" s="8"/>
       <c r="BZ19" s="8"/>
       <c r="CA19" s="8"/>
-      <c r="CB19" s="1"/>
+      <c r="CB19" s="8"/>
       <c r="CC19" s="8"/>
-    </row>
-    <row r="20" spans="1:81" ht="12.75" customHeight="1">
+      <c r="CD19" s="1"/>
+      <c r="CE19" s="8"/>
+    </row>
+    <row r="20" spans="1:83" ht="12.75" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
@@ -2795,16 +2964,16 @@
       <c r="M20" s="13"/>
       <c r="N20" s="13"/>
       <c r="O20" s="13"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
-      <c r="W20" s="11"/>
+      <c r="W20" s="1"/>
       <c r="X20" s="1"/>
-      <c r="Y20" s="1"/>
+      <c r="Y20" s="11"/>
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
@@ -2843,8 +3012,8 @@
       <c r="BI20" s="1"/>
       <c r="BJ20" s="1"/>
       <c r="BK20" s="1"/>
-      <c r="BL20" s="8"/>
-      <c r="BM20" s="8"/>
+      <c r="BL20" s="1"/>
+      <c r="BM20" s="1"/>
       <c r="BN20" s="8"/>
       <c r="BO20" s="8"/>
       <c r="BP20" s="8"/>
@@ -2859,10 +3028,12 @@
       <c r="BY20" s="8"/>
       <c r="BZ20" s="8"/>
       <c r="CA20" s="8"/>
-      <c r="CB20" s="1"/>
+      <c r="CB20" s="8"/>
       <c r="CC20" s="8"/>
-    </row>
-    <row r="21" spans="1:81" ht="12.75" customHeight="1">
+      <c r="CD20" s="1"/>
+      <c r="CE20" s="8"/>
+    </row>
+    <row r="21" spans="1:83" ht="12.75" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="6"/>
       <c r="C21" s="7"/>
@@ -2878,16 +3049,16 @@
       <c r="M21" s="13"/>
       <c r="N21" s="13"/>
       <c r="O21" s="13"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
-      <c r="W21" s="11"/>
+      <c r="W21" s="1"/>
       <c r="X21" s="1"/>
-      <c r="Y21" s="1"/>
+      <c r="Y21" s="11"/>
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
@@ -2926,8 +3097,8 @@
       <c r="BI21" s="1"/>
       <c r="BJ21" s="1"/>
       <c r="BK21" s="1"/>
-      <c r="BL21" s="8"/>
-      <c r="BM21" s="8"/>
+      <c r="BL21" s="1"/>
+      <c r="BM21" s="1"/>
       <c r="BN21" s="8"/>
       <c r="BO21" s="8"/>
       <c r="BP21" s="8"/>
@@ -2942,10 +3113,12 @@
       <c r="BY21" s="8"/>
       <c r="BZ21" s="8"/>
       <c r="CA21" s="8"/>
-      <c r="CB21" s="1"/>
+      <c r="CB21" s="8"/>
       <c r="CC21" s="8"/>
-    </row>
-    <row r="22" spans="1:81" ht="12.75" customHeight="1">
+      <c r="CD21" s="1"/>
+      <c r="CE21" s="8"/>
+    </row>
+    <row r="22" spans="1:83" ht="12.75" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" s="6"/>
       <c r="C22" s="7"/>
@@ -2961,16 +3134,16 @@
       <c r="M22" s="13"/>
       <c r="N22" s="13"/>
       <c r="O22" s="13"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
-      <c r="W22" s="11"/>
+      <c r="W22" s="1"/>
       <c r="X22" s="1"/>
-      <c r="Y22" s="1"/>
+      <c r="Y22" s="11"/>
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
@@ -3009,8 +3182,8 @@
       <c r="BI22" s="1"/>
       <c r="BJ22" s="1"/>
       <c r="BK22" s="1"/>
-      <c r="BL22" s="8"/>
-      <c r="BM22" s="8"/>
+      <c r="BL22" s="1"/>
+      <c r="BM22" s="1"/>
       <c r="BN22" s="8"/>
       <c r="BO22" s="8"/>
       <c r="BP22" s="8"/>
@@ -3025,10 +3198,12 @@
       <c r="BY22" s="8"/>
       <c r="BZ22" s="8"/>
       <c r="CA22" s="8"/>
-      <c r="CB22" s="1"/>
+      <c r="CB22" s="8"/>
       <c r="CC22" s="8"/>
-    </row>
-    <row r="23" spans="1:81" ht="12.75" customHeight="1">
+      <c r="CD22" s="1"/>
+      <c r="CE22" s="8"/>
+    </row>
+    <row r="23" spans="1:83" ht="12.75" customHeight="1">
       <c r="A23" s="2"/>
       <c r="B23" s="6"/>
       <c r="C23" s="7"/>
@@ -3044,16 +3219,16 @@
       <c r="M23" s="13"/>
       <c r="N23" s="13"/>
       <c r="O23" s="13"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
-      <c r="W23" s="11"/>
+      <c r="W23" s="1"/>
       <c r="X23" s="1"/>
-      <c r="Y23" s="1"/>
+      <c r="Y23" s="11"/>
       <c r="Z23" s="1"/>
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
@@ -3092,8 +3267,8 @@
       <c r="BI23" s="1"/>
       <c r="BJ23" s="1"/>
       <c r="BK23" s="1"/>
-      <c r="BL23" s="8"/>
-      <c r="BM23" s="8"/>
+      <c r="BL23" s="1"/>
+      <c r="BM23" s="1"/>
       <c r="BN23" s="8"/>
       <c r="BO23" s="8"/>
       <c r="BP23" s="8"/>
@@ -3108,10 +3283,12 @@
       <c r="BY23" s="8"/>
       <c r="BZ23" s="8"/>
       <c r="CA23" s="8"/>
-      <c r="CB23" s="1"/>
+      <c r="CB23" s="8"/>
       <c r="CC23" s="8"/>
-    </row>
-    <row r="24" spans="1:81" ht="12.75" customHeight="1">
+      <c r="CD23" s="1"/>
+      <c r="CE23" s="8"/>
+    </row>
+    <row r="24" spans="1:83" ht="12.75" customHeight="1">
       <c r="A24" s="2"/>
       <c r="B24" s="6"/>
       <c r="C24" s="7"/>
@@ -3127,16 +3304,16 @@
       <c r="M24" s="13"/>
       <c r="N24" s="13"/>
       <c r="O24" s="13"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
-      <c r="W24" s="11"/>
+      <c r="W24" s="1"/>
       <c r="X24" s="1"/>
-      <c r="Y24" s="1"/>
+      <c r="Y24" s="11"/>
       <c r="Z24" s="1"/>
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
@@ -3175,8 +3352,8 @@
       <c r="BI24" s="1"/>
       <c r="BJ24" s="1"/>
       <c r="BK24" s="1"/>
-      <c r="BL24" s="8"/>
-      <c r="BM24" s="8"/>
+      <c r="BL24" s="1"/>
+      <c r="BM24" s="1"/>
       <c r="BN24" s="8"/>
       <c r="BO24" s="8"/>
       <c r="BP24" s="8"/>
@@ -3191,10 +3368,12 @@
       <c r="BY24" s="8"/>
       <c r="BZ24" s="8"/>
       <c r="CA24" s="8"/>
-      <c r="CB24" s="1"/>
+      <c r="CB24" s="8"/>
       <c r="CC24" s="8"/>
-    </row>
-    <row r="25" spans="1:81" ht="12.75" customHeight="1">
+      <c r="CD24" s="1"/>
+      <c r="CE24" s="8"/>
+    </row>
+    <row r="25" spans="1:83" ht="12.75" customHeight="1">
       <c r="A25" s="2"/>
       <c r="B25" s="6"/>
       <c r="C25" s="7"/>
@@ -3210,16 +3389,16 @@
       <c r="M25" s="13"/>
       <c r="N25" s="13"/>
       <c r="O25" s="13"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
-      <c r="W25" s="11"/>
+      <c r="W25" s="1"/>
       <c r="X25" s="1"/>
-      <c r="Y25" s="1"/>
+      <c r="Y25" s="11"/>
       <c r="Z25" s="1"/>
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
@@ -3258,8 +3437,8 @@
       <c r="BI25" s="1"/>
       <c r="BJ25" s="1"/>
       <c r="BK25" s="1"/>
-      <c r="BL25" s="8"/>
-      <c r="BM25" s="8"/>
+      <c r="BL25" s="1"/>
+      <c r="BM25" s="1"/>
       <c r="BN25" s="8"/>
       <c r="BO25" s="8"/>
       <c r="BP25" s="8"/>
@@ -3274,10 +3453,12 @@
       <c r="BY25" s="8"/>
       <c r="BZ25" s="8"/>
       <c r="CA25" s="8"/>
-      <c r="CB25" s="1"/>
+      <c r="CB25" s="8"/>
       <c r="CC25" s="8"/>
-    </row>
-    <row r="26" spans="1:81" ht="12.75" customHeight="1">
+      <c r="CD25" s="1"/>
+      <c r="CE25" s="8"/>
+    </row>
+    <row r="26" spans="1:83" ht="12.75" customHeight="1">
       <c r="A26" s="2"/>
       <c r="B26" s="6"/>
       <c r="C26" s="7"/>
@@ -3293,16 +3474,16 @@
       <c r="M26" s="13"/>
       <c r="N26" s="13"/>
       <c r="O26" s="13"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
-      <c r="W26" s="11"/>
+      <c r="W26" s="1"/>
       <c r="X26" s="1"/>
-      <c r="Y26" s="1"/>
+      <c r="Y26" s="11"/>
       <c r="Z26" s="1"/>
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
@@ -3341,8 +3522,8 @@
       <c r="BI26" s="1"/>
       <c r="BJ26" s="1"/>
       <c r="BK26" s="1"/>
-      <c r="BL26" s="8"/>
-      <c r="BM26" s="8"/>
+      <c r="BL26" s="1"/>
+      <c r="BM26" s="1"/>
       <c r="BN26" s="8"/>
       <c r="BO26" s="8"/>
       <c r="BP26" s="8"/>
@@ -3357,10 +3538,12 @@
       <c r="BY26" s="8"/>
       <c r="BZ26" s="8"/>
       <c r="CA26" s="8"/>
-      <c r="CB26" s="1"/>
+      <c r="CB26" s="8"/>
       <c r="CC26" s="8"/>
-    </row>
-    <row r="27" spans="1:81" ht="12.75" customHeight="1">
+      <c r="CD26" s="1"/>
+      <c r="CE26" s="8"/>
+    </row>
+    <row r="27" spans="1:83" ht="12.75" customHeight="1">
       <c r="A27" s="2"/>
       <c r="B27" s="6"/>
       <c r="C27" s="7"/>
@@ -3376,16 +3559,16 @@
       <c r="M27" s="13"/>
       <c r="N27" s="13"/>
       <c r="O27" s="13"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
-      <c r="W27" s="11"/>
+      <c r="W27" s="1"/>
       <c r="X27" s="1"/>
-      <c r="Y27" s="1"/>
+      <c r="Y27" s="11"/>
       <c r="Z27" s="1"/>
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
@@ -3424,8 +3607,8 @@
       <c r="BI27" s="1"/>
       <c r="BJ27" s="1"/>
       <c r="BK27" s="1"/>
-      <c r="BL27" s="8"/>
-      <c r="BM27" s="8"/>
+      <c r="BL27" s="1"/>
+      <c r="BM27" s="1"/>
       <c r="BN27" s="8"/>
       <c r="BO27" s="8"/>
       <c r="BP27" s="8"/>
@@ -3440,10 +3623,12 @@
       <c r="BY27" s="8"/>
       <c r="BZ27" s="8"/>
       <c r="CA27" s="8"/>
-      <c r="CB27" s="1"/>
+      <c r="CB27" s="8"/>
       <c r="CC27" s="8"/>
-    </row>
-    <row r="28" spans="1:81" ht="12.75" customHeight="1">
+      <c r="CD27" s="1"/>
+      <c r="CE27" s="8"/>
+    </row>
+    <row r="28" spans="1:83" ht="12.75" customHeight="1">
       <c r="A28" s="2"/>
       <c r="B28" s="6"/>
       <c r="C28" s="7"/>
@@ -3459,16 +3644,16 @@
       <c r="M28" s="13"/>
       <c r="N28" s="13"/>
       <c r="O28" s="13"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
-      <c r="W28" s="11"/>
+      <c r="W28" s="1"/>
       <c r="X28" s="1"/>
-      <c r="Y28" s="1"/>
+      <c r="Y28" s="11"/>
       <c r="Z28" s="1"/>
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
@@ -3507,8 +3692,8 @@
       <c r="BI28" s="1"/>
       <c r="BJ28" s="1"/>
       <c r="BK28" s="1"/>
-      <c r="BL28" s="8"/>
-      <c r="BM28" s="8"/>
+      <c r="BL28" s="1"/>
+      <c r="BM28" s="1"/>
       <c r="BN28" s="8"/>
       <c r="BO28" s="8"/>
       <c r="BP28" s="8"/>
@@ -3523,10 +3708,12 @@
       <c r="BY28" s="8"/>
       <c r="BZ28" s="8"/>
       <c r="CA28" s="8"/>
-      <c r="CB28" s="1"/>
+      <c r="CB28" s="8"/>
       <c r="CC28" s="8"/>
-    </row>
-    <row r="29" spans="1:81" ht="12.75" customHeight="1">
+      <c r="CD28" s="1"/>
+      <c r="CE28" s="8"/>
+    </row>
+    <row r="29" spans="1:83" ht="12.75" customHeight="1">
       <c r="A29" s="2"/>
       <c r="B29" s="6"/>
       <c r="C29" s="7"/>
@@ -3542,16 +3729,16 @@
       <c r="M29" s="13"/>
       <c r="N29" s="13"/>
       <c r="O29" s="13"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
-      <c r="W29" s="11"/>
+      <c r="W29" s="1"/>
       <c r="X29" s="1"/>
-      <c r="Y29" s="1"/>
+      <c r="Y29" s="11"/>
       <c r="Z29" s="1"/>
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
@@ -3590,8 +3777,8 @@
       <c r="BI29" s="1"/>
       <c r="BJ29" s="1"/>
       <c r="BK29" s="1"/>
-      <c r="BL29" s="8"/>
-      <c r="BM29" s="8"/>
+      <c r="BL29" s="1"/>
+      <c r="BM29" s="1"/>
       <c r="BN29" s="8"/>
       <c r="BO29" s="8"/>
       <c r="BP29" s="8"/>
@@ -3606,10 +3793,12 @@
       <c r="BY29" s="8"/>
       <c r="BZ29" s="8"/>
       <c r="CA29" s="8"/>
-      <c r="CB29" s="1"/>
+      <c r="CB29" s="8"/>
       <c r="CC29" s="8"/>
-    </row>
-    <row r="30" spans="1:81" ht="12.75" customHeight="1">
+      <c r="CD29" s="1"/>
+      <c r="CE29" s="8"/>
+    </row>
+    <row r="30" spans="1:83" ht="12.75" customHeight="1">
       <c r="A30" s="2"/>
       <c r="B30" s="6"/>
       <c r="C30" s="7"/>
@@ -3625,16 +3814,16 @@
       <c r="M30" s="13"/>
       <c r="N30" s="13"/>
       <c r="O30" s="13"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
-      <c r="W30" s="11"/>
+      <c r="W30" s="1"/>
       <c r="X30" s="1"/>
-      <c r="Y30" s="1"/>
+      <c r="Y30" s="11"/>
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
@@ -3673,8 +3862,8 @@
       <c r="BI30" s="1"/>
       <c r="BJ30" s="1"/>
       <c r="BK30" s="1"/>
-      <c r="BL30" s="8"/>
-      <c r="BM30" s="8"/>
+      <c r="BL30" s="1"/>
+      <c r="BM30" s="1"/>
       <c r="BN30" s="8"/>
       <c r="BO30" s="8"/>
       <c r="BP30" s="8"/>
@@ -3689,10 +3878,12 @@
       <c r="BY30" s="8"/>
       <c r="BZ30" s="8"/>
       <c r="CA30" s="8"/>
-      <c r="CB30" s="1"/>
+      <c r="CB30" s="8"/>
       <c r="CC30" s="8"/>
-    </row>
-    <row r="31" spans="1:81" ht="12.75" customHeight="1">
+      <c r="CD30" s="1"/>
+      <c r="CE30" s="8"/>
+    </row>
+    <row r="31" spans="1:83" ht="12.75" customHeight="1">
       <c r="A31" s="2"/>
       <c r="B31" s="6"/>
       <c r="C31" s="7"/>
@@ -3708,16 +3899,16 @@
       <c r="M31" s="13"/>
       <c r="N31" s="13"/>
       <c r="O31" s="13"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
-      <c r="W31" s="11"/>
+      <c r="W31" s="1"/>
       <c r="X31" s="1"/>
-      <c r="Y31" s="1"/>
+      <c r="Y31" s="11"/>
       <c r="Z31" s="1"/>
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
@@ -3756,8 +3947,8 @@
       <c r="BI31" s="1"/>
       <c r="BJ31" s="1"/>
       <c r="BK31" s="1"/>
-      <c r="BL31" s="8"/>
-      <c r="BM31" s="8"/>
+      <c r="BL31" s="1"/>
+      <c r="BM31" s="1"/>
       <c r="BN31" s="8"/>
       <c r="BO31" s="8"/>
       <c r="BP31" s="8"/>
@@ -3772,10 +3963,12 @@
       <c r="BY31" s="8"/>
       <c r="BZ31" s="8"/>
       <c r="CA31" s="8"/>
-      <c r="CB31" s="1"/>
+      <c r="CB31" s="8"/>
       <c r="CC31" s="8"/>
-    </row>
-    <row r="32" spans="1:81" ht="12.75" customHeight="1">
+      <c r="CD31" s="1"/>
+      <c r="CE31" s="8"/>
+    </row>
+    <row r="32" spans="1:83" ht="12.75" customHeight="1">
       <c r="A32" s="2"/>
       <c r="B32" s="6"/>
       <c r="C32" s="7"/>
@@ -3791,16 +3984,16 @@
       <c r="M32" s="13"/>
       <c r="N32" s="13"/>
       <c r="O32" s="13"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
-      <c r="W32" s="11"/>
+      <c r="W32" s="1"/>
       <c r="X32" s="1"/>
-      <c r="Y32" s="1"/>
+      <c r="Y32" s="11"/>
       <c r="Z32" s="1"/>
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
@@ -3839,8 +4032,8 @@
       <c r="BI32" s="1"/>
       <c r="BJ32" s="1"/>
       <c r="BK32" s="1"/>
-      <c r="BL32" s="8"/>
-      <c r="BM32" s="8"/>
+      <c r="BL32" s="1"/>
+      <c r="BM32" s="1"/>
       <c r="BN32" s="8"/>
       <c r="BO32" s="8"/>
       <c r="BP32" s="8"/>
@@ -3855,10 +4048,12 @@
       <c r="BY32" s="8"/>
       <c r="BZ32" s="8"/>
       <c r="CA32" s="8"/>
-      <c r="CB32" s="1"/>
+      <c r="CB32" s="8"/>
       <c r="CC32" s="8"/>
-    </row>
-    <row r="33" spans="1:81" ht="12.75" customHeight="1">
+      <c r="CD32" s="1"/>
+      <c r="CE32" s="8"/>
+    </row>
+    <row r="33" spans="1:83" ht="12.75" customHeight="1">
       <c r="A33" s="2"/>
       <c r="B33" s="6"/>
       <c r="C33" s="7"/>
@@ -3874,16 +4069,16 @@
       <c r="M33" s="13"/>
       <c r="N33" s="13"/>
       <c r="O33" s="13"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
-      <c r="W33" s="11"/>
+      <c r="W33" s="1"/>
       <c r="X33" s="1"/>
-      <c r="Y33" s="1"/>
+      <c r="Y33" s="11"/>
       <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
@@ -3922,8 +4117,8 @@
       <c r="BI33" s="1"/>
       <c r="BJ33" s="1"/>
       <c r="BK33" s="1"/>
-      <c r="BL33" s="8"/>
-      <c r="BM33" s="8"/>
+      <c r="BL33" s="1"/>
+      <c r="BM33" s="1"/>
       <c r="BN33" s="8"/>
       <c r="BO33" s="8"/>
       <c r="BP33" s="8"/>
@@ -3938,10 +4133,12 @@
       <c r="BY33" s="8"/>
       <c r="BZ33" s="8"/>
       <c r="CA33" s="8"/>
-      <c r="CB33" s="1"/>
+      <c r="CB33" s="8"/>
       <c r="CC33" s="8"/>
-    </row>
-    <row r="34" spans="1:81" ht="12.75" customHeight="1">
+      <c r="CD33" s="1"/>
+      <c r="CE33" s="8"/>
+    </row>
+    <row r="34" spans="1:83" ht="12.75" customHeight="1">
       <c r="A34" s="2"/>
       <c r="B34" s="6"/>
       <c r="C34" s="7"/>
@@ -3957,16 +4154,16 @@
       <c r="M34" s="13"/>
       <c r="N34" s="13"/>
       <c r="O34" s="13"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
       <c r="V34" s="1"/>
-      <c r="W34" s="11"/>
+      <c r="W34" s="1"/>
       <c r="X34" s="1"/>
-      <c r="Y34" s="1"/>
+      <c r="Y34" s="11"/>
       <c r="Z34" s="1"/>
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
@@ -4005,8 +4202,8 @@
       <c r="BI34" s="1"/>
       <c r="BJ34" s="1"/>
       <c r="BK34" s="1"/>
-      <c r="BL34" s="8"/>
-      <c r="BM34" s="8"/>
+      <c r="BL34" s="1"/>
+      <c r="BM34" s="1"/>
       <c r="BN34" s="8"/>
       <c r="BO34" s="8"/>
       <c r="BP34" s="8"/>
@@ -4021,10 +4218,12 @@
       <c r="BY34" s="8"/>
       <c r="BZ34" s="8"/>
       <c r="CA34" s="8"/>
-      <c r="CB34" s="1"/>
+      <c r="CB34" s="8"/>
       <c r="CC34" s="8"/>
-    </row>
-    <row r="35" spans="1:81" ht="12.75" customHeight="1">
+      <c r="CD34" s="1"/>
+      <c r="CE34" s="8"/>
+    </row>
+    <row r="35" spans="1:83" ht="12.75" customHeight="1">
       <c r="A35" s="2"/>
       <c r="B35" s="6"/>
       <c r="C35" s="7"/>
@@ -4040,16 +4239,16 @@
       <c r="M35" s="13"/>
       <c r="N35" s="13"/>
       <c r="O35" s="13"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="13"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
-      <c r="W35" s="11"/>
+      <c r="W35" s="1"/>
       <c r="X35" s="1"/>
-      <c r="Y35" s="1"/>
+      <c r="Y35" s="11"/>
       <c r="Z35" s="1"/>
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
@@ -4088,8 +4287,8 @@
       <c r="BI35" s="1"/>
       <c r="BJ35" s="1"/>
       <c r="BK35" s="1"/>
-      <c r="BL35" s="8"/>
-      <c r="BM35" s="8"/>
+      <c r="BL35" s="1"/>
+      <c r="BM35" s="1"/>
       <c r="BN35" s="8"/>
       <c r="BO35" s="8"/>
       <c r="BP35" s="8"/>
@@ -4104,10 +4303,12 @@
       <c r="BY35" s="8"/>
       <c r="BZ35" s="8"/>
       <c r="CA35" s="8"/>
-      <c r="CB35" s="1"/>
+      <c r="CB35" s="8"/>
       <c r="CC35" s="8"/>
-    </row>
-    <row r="36" spans="1:81" ht="12.75" customHeight="1">
+      <c r="CD35" s="1"/>
+      <c r="CE35" s="8"/>
+    </row>
+    <row r="36" spans="1:83" ht="12.75" customHeight="1">
       <c r="A36" s="2"/>
       <c r="B36" s="6"/>
       <c r="C36" s="7"/>
@@ -4123,16 +4324,16 @@
       <c r="M36" s="13"/>
       <c r="N36" s="13"/>
       <c r="O36" s="13"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="13"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
-      <c r="W36" s="11"/>
+      <c r="W36" s="1"/>
       <c r="X36" s="1"/>
-      <c r="Y36" s="1"/>
+      <c r="Y36" s="11"/>
       <c r="Z36" s="1"/>
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
@@ -4171,8 +4372,8 @@
       <c r="BI36" s="1"/>
       <c r="BJ36" s="1"/>
       <c r="BK36" s="1"/>
-      <c r="BL36" s="8"/>
-      <c r="BM36" s="8"/>
+      <c r="BL36" s="1"/>
+      <c r="BM36" s="1"/>
       <c r="BN36" s="8"/>
       <c r="BO36" s="8"/>
       <c r="BP36" s="8"/>
@@ -4187,10 +4388,12 @@
       <c r="BY36" s="8"/>
       <c r="BZ36" s="8"/>
       <c r="CA36" s="8"/>
-      <c r="CB36" s="1"/>
+      <c r="CB36" s="8"/>
       <c r="CC36" s="8"/>
-    </row>
-    <row r="37" spans="1:81" ht="12.75" customHeight="1">
+      <c r="CD36" s="1"/>
+      <c r="CE36" s="8"/>
+    </row>
+    <row r="37" spans="1:83" ht="12.75" customHeight="1">
       <c r="A37" s="2"/>
       <c r="B37" s="6"/>
       <c r="C37" s="7"/>
@@ -4206,16 +4409,16 @@
       <c r="M37" s="13"/>
       <c r="N37" s="13"/>
       <c r="O37" s="13"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
+      <c r="P37" s="13"/>
+      <c r="Q37" s="13"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
       <c r="V37" s="1"/>
-      <c r="W37" s="11"/>
+      <c r="W37" s="1"/>
       <c r="X37" s="1"/>
-      <c r="Y37" s="1"/>
+      <c r="Y37" s="11"/>
       <c r="Z37" s="1"/>
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
@@ -4254,8 +4457,8 @@
       <c r="BI37" s="1"/>
       <c r="BJ37" s="1"/>
       <c r="BK37" s="1"/>
-      <c r="BL37" s="8"/>
-      <c r="BM37" s="8"/>
+      <c r="BL37" s="1"/>
+      <c r="BM37" s="1"/>
       <c r="BN37" s="8"/>
       <c r="BO37" s="8"/>
       <c r="BP37" s="8"/>
@@ -4270,10 +4473,12 @@
       <c r="BY37" s="8"/>
       <c r="BZ37" s="8"/>
       <c r="CA37" s="8"/>
-      <c r="CB37" s="1"/>
+      <c r="CB37" s="8"/>
       <c r="CC37" s="8"/>
-    </row>
-    <row r="38" spans="1:81" ht="12.75" customHeight="1">
+      <c r="CD37" s="1"/>
+      <c r="CE37" s="8"/>
+    </row>
+    <row r="38" spans="1:83" ht="12.75" customHeight="1">
       <c r="A38" s="2"/>
       <c r="B38" s="6"/>
       <c r="C38" s="7"/>
@@ -4289,16 +4494,16 @@
       <c r="M38" s="13"/>
       <c r="N38" s="13"/>
       <c r="O38" s="13"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="13"/>
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
       <c r="U38" s="1"/>
       <c r="V38" s="1"/>
-      <c r="W38" s="11"/>
+      <c r="W38" s="1"/>
       <c r="X38" s="1"/>
-      <c r="Y38" s="1"/>
+      <c r="Y38" s="11"/>
       <c r="Z38" s="1"/>
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
@@ -4337,8 +4542,8 @@
       <c r="BI38" s="1"/>
       <c r="BJ38" s="1"/>
       <c r="BK38" s="1"/>
-      <c r="BL38" s="8"/>
-      <c r="BM38" s="8"/>
+      <c r="BL38" s="1"/>
+      <c r="BM38" s="1"/>
       <c r="BN38" s="8"/>
       <c r="BO38" s="8"/>
       <c r="BP38" s="8"/>
@@ -4353,10 +4558,12 @@
       <c r="BY38" s="8"/>
       <c r="BZ38" s="8"/>
       <c r="CA38" s="8"/>
-      <c r="CB38" s="1"/>
+      <c r="CB38" s="8"/>
       <c r="CC38" s="8"/>
-    </row>
-    <row r="39" spans="1:81" ht="12.75" customHeight="1">
+      <c r="CD38" s="1"/>
+      <c r="CE38" s="8"/>
+    </row>
+    <row r="39" spans="1:83" ht="12.75" customHeight="1">
       <c r="A39" s="2"/>
       <c r="B39" s="6"/>
       <c r="C39" s="7"/>
@@ -4372,16 +4579,16 @@
       <c r="M39" s="13"/>
       <c r="N39" s="13"/>
       <c r="O39" s="13"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
+      <c r="P39" s="13"/>
+      <c r="Q39" s="13"/>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
-      <c r="W39" s="11"/>
+      <c r="W39" s="1"/>
       <c r="X39" s="1"/>
-      <c r="Y39" s="1"/>
+      <c r="Y39" s="11"/>
       <c r="Z39" s="1"/>
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
@@ -4420,8 +4627,8 @@
       <c r="BI39" s="1"/>
       <c r="BJ39" s="1"/>
       <c r="BK39" s="1"/>
-      <c r="BL39" s="8"/>
-      <c r="BM39" s="8"/>
+      <c r="BL39" s="1"/>
+      <c r="BM39" s="1"/>
       <c r="BN39" s="8"/>
       <c r="BO39" s="8"/>
       <c r="BP39" s="8"/>
@@ -4436,10 +4643,12 @@
       <c r="BY39" s="8"/>
       <c r="BZ39" s="8"/>
       <c r="CA39" s="8"/>
-      <c r="CB39" s="1"/>
+      <c r="CB39" s="8"/>
       <c r="CC39" s="8"/>
-    </row>
-    <row r="40" spans="1:81" ht="12.75" customHeight="1">
+      <c r="CD39" s="1"/>
+      <c r="CE39" s="8"/>
+    </row>
+    <row r="40" spans="1:83" ht="12.75" customHeight="1">
       <c r="A40" s="2"/>
       <c r="B40" s="6"/>
       <c r="C40" s="7"/>
@@ -4455,16 +4664,16 @@
       <c r="M40" s="13"/>
       <c r="N40" s="13"/>
       <c r="O40" s="13"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="1"/>
+      <c r="P40" s="13"/>
+      <c r="Q40" s="13"/>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
-      <c r="W40" s="11"/>
+      <c r="W40" s="1"/>
       <c r="X40" s="1"/>
-      <c r="Y40" s="1"/>
+      <c r="Y40" s="11"/>
       <c r="Z40" s="1"/>
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
@@ -4503,8 +4712,8 @@
       <c r="BI40" s="1"/>
       <c r="BJ40" s="1"/>
       <c r="BK40" s="1"/>
-      <c r="BL40" s="8"/>
-      <c r="BM40" s="8"/>
+      <c r="BL40" s="1"/>
+      <c r="BM40" s="1"/>
       <c r="BN40" s="8"/>
       <c r="BO40" s="8"/>
       <c r="BP40" s="8"/>
@@ -4519,10 +4728,12 @@
       <c r="BY40" s="8"/>
       <c r="BZ40" s="8"/>
       <c r="CA40" s="8"/>
-      <c r="CB40" s="1"/>
+      <c r="CB40" s="8"/>
       <c r="CC40" s="8"/>
-    </row>
-    <row r="41" spans="1:81" ht="12.75" customHeight="1">
+      <c r="CD40" s="1"/>
+      <c r="CE40" s="8"/>
+    </row>
+    <row r="41" spans="1:83" ht="12.75" customHeight="1">
       <c r="A41" s="2"/>
       <c r="B41" s="6"/>
       <c r="C41" s="7"/>
@@ -4538,16 +4749,16 @@
       <c r="M41" s="13"/>
       <c r="N41" s="13"/>
       <c r="O41" s="13"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="1"/>
+      <c r="P41" s="13"/>
+      <c r="Q41" s="13"/>
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
       <c r="V41" s="1"/>
-      <c r="W41" s="11"/>
+      <c r="W41" s="1"/>
       <c r="X41" s="1"/>
-      <c r="Y41" s="1"/>
+      <c r="Y41" s="11"/>
       <c r="Z41" s="1"/>
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
@@ -4586,8 +4797,8 @@
       <c r="BI41" s="1"/>
       <c r="BJ41" s="1"/>
       <c r="BK41" s="1"/>
-      <c r="BL41" s="8"/>
-      <c r="BM41" s="8"/>
+      <c r="BL41" s="1"/>
+      <c r="BM41" s="1"/>
       <c r="BN41" s="8"/>
       <c r="BO41" s="8"/>
       <c r="BP41" s="8"/>
@@ -4602,10 +4813,12 @@
       <c r="BY41" s="8"/>
       <c r="BZ41" s="8"/>
       <c r="CA41" s="8"/>
-      <c r="CB41" s="1"/>
+      <c r="CB41" s="8"/>
       <c r="CC41" s="8"/>
-    </row>
-    <row r="42" spans="1:81" ht="12.75" customHeight="1">
+      <c r="CD41" s="1"/>
+      <c r="CE41" s="8"/>
+    </row>
+    <row r="42" spans="1:83" ht="12.75" customHeight="1">
       <c r="A42" s="2"/>
       <c r="B42" s="6"/>
       <c r="C42" s="7"/>
@@ -4621,16 +4834,16 @@
       <c r="M42" s="13"/>
       <c r="N42" s="13"/>
       <c r="O42" s="13"/>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="1"/>
+      <c r="P42" s="13"/>
+      <c r="Q42" s="13"/>
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
       <c r="V42" s="1"/>
-      <c r="W42" s="11"/>
+      <c r="W42" s="1"/>
       <c r="X42" s="1"/>
-      <c r="Y42" s="1"/>
+      <c r="Y42" s="11"/>
       <c r="Z42" s="1"/>
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
@@ -4669,8 +4882,8 @@
       <c r="BI42" s="1"/>
       <c r="BJ42" s="1"/>
       <c r="BK42" s="1"/>
-      <c r="BL42" s="8"/>
-      <c r="BM42" s="8"/>
+      <c r="BL42" s="1"/>
+      <c r="BM42" s="1"/>
       <c r="BN42" s="8"/>
       <c r="BO42" s="8"/>
       <c r="BP42" s="8"/>
@@ -4685,10 +4898,12 @@
       <c r="BY42" s="8"/>
       <c r="BZ42" s="8"/>
       <c r="CA42" s="8"/>
-      <c r="CB42" s="1"/>
+      <c r="CB42" s="8"/>
       <c r="CC42" s="8"/>
-    </row>
-    <row r="43" spans="1:81" ht="12.75" customHeight="1">
+      <c r="CD42" s="1"/>
+      <c r="CE42" s="8"/>
+    </row>
+    <row r="43" spans="1:83" ht="12.75" customHeight="1">
       <c r="A43" s="2"/>
       <c r="B43" s="6"/>
       <c r="C43" s="7"/>
@@ -4704,16 +4919,16 @@
       <c r="M43" s="13"/>
       <c r="N43" s="13"/>
       <c r="O43" s="13"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="1"/>
+      <c r="P43" s="13"/>
+      <c r="Q43" s="13"/>
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
       <c r="U43" s="1"/>
       <c r="V43" s="1"/>
-      <c r="W43" s="11"/>
+      <c r="W43" s="1"/>
       <c r="X43" s="1"/>
-      <c r="Y43" s="1"/>
+      <c r="Y43" s="11"/>
       <c r="Z43" s="1"/>
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
@@ -4752,8 +4967,8 @@
       <c r="BI43" s="1"/>
       <c r="BJ43" s="1"/>
       <c r="BK43" s="1"/>
-      <c r="BL43" s="8"/>
-      <c r="BM43" s="8"/>
+      <c r="BL43" s="1"/>
+      <c r="BM43" s="1"/>
       <c r="BN43" s="8"/>
       <c r="BO43" s="8"/>
       <c r="BP43" s="8"/>
@@ -4768,10 +4983,12 @@
       <c r="BY43" s="8"/>
       <c r="BZ43" s="8"/>
       <c r="CA43" s="8"/>
-      <c r="CB43" s="1"/>
+      <c r="CB43" s="8"/>
       <c r="CC43" s="8"/>
-    </row>
-    <row r="44" spans="1:81" ht="12.75" customHeight="1">
+      <c r="CD43" s="1"/>
+      <c r="CE43" s="8"/>
+    </row>
+    <row r="44" spans="1:83" ht="12.75" customHeight="1">
       <c r="A44" s="2"/>
       <c r="B44" s="6"/>
       <c r="C44" s="7"/>
@@ -4787,16 +5004,16 @@
       <c r="M44" s="13"/>
       <c r="N44" s="13"/>
       <c r="O44" s="13"/>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="1"/>
+      <c r="P44" s="13"/>
+      <c r="Q44" s="13"/>
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
       <c r="U44" s="1"/>
       <c r="V44" s="1"/>
-      <c r="W44" s="11"/>
+      <c r="W44" s="1"/>
       <c r="X44" s="1"/>
-      <c r="Y44" s="1"/>
+      <c r="Y44" s="11"/>
       <c r="Z44" s="1"/>
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
@@ -4835,8 +5052,8 @@
       <c r="BI44" s="1"/>
       <c r="BJ44" s="1"/>
       <c r="BK44" s="1"/>
-      <c r="BL44" s="8"/>
-      <c r="BM44" s="8"/>
+      <c r="BL44" s="1"/>
+      <c r="BM44" s="1"/>
       <c r="BN44" s="8"/>
       <c r="BO44" s="8"/>
       <c r="BP44" s="8"/>
@@ -4851,10 +5068,12 @@
       <c r="BY44" s="8"/>
       <c r="BZ44" s="8"/>
       <c r="CA44" s="8"/>
-      <c r="CB44" s="1"/>
+      <c r="CB44" s="8"/>
       <c r="CC44" s="8"/>
-    </row>
-    <row r="45" spans="1:81" ht="12.75" customHeight="1">
+      <c r="CD44" s="1"/>
+      <c r="CE44" s="8"/>
+    </row>
+    <row r="45" spans="1:83" ht="12.75" customHeight="1">
       <c r="A45" s="2"/>
       <c r="B45" s="6"/>
       <c r="C45" s="7"/>
@@ -4870,16 +5089,16 @@
       <c r="M45" s="13"/>
       <c r="N45" s="13"/>
       <c r="O45" s="13"/>
-      <c r="P45" s="1"/>
-      <c r="Q45" s="1"/>
+      <c r="P45" s="13"/>
+      <c r="Q45" s="13"/>
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
       <c r="U45" s="1"/>
       <c r="V45" s="1"/>
-      <c r="W45" s="11"/>
+      <c r="W45" s="1"/>
       <c r="X45" s="1"/>
-      <c r="Y45" s="1"/>
+      <c r="Y45" s="11"/>
       <c r="Z45" s="1"/>
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
@@ -4918,8 +5137,8 @@
       <c r="BI45" s="1"/>
       <c r="BJ45" s="1"/>
       <c r="BK45" s="1"/>
-      <c r="BL45" s="8"/>
-      <c r="BM45" s="8"/>
+      <c r="BL45" s="1"/>
+      <c r="BM45" s="1"/>
       <c r="BN45" s="8"/>
       <c r="BO45" s="8"/>
       <c r="BP45" s="8"/>
@@ -4934,10 +5153,12 @@
       <c r="BY45" s="8"/>
       <c r="BZ45" s="8"/>
       <c r="CA45" s="8"/>
-      <c r="CB45" s="1"/>
+      <c r="CB45" s="8"/>
       <c r="CC45" s="8"/>
-    </row>
-    <row r="46" spans="1:81" ht="12.75" customHeight="1">
+      <c r="CD45" s="1"/>
+      <c r="CE45" s="8"/>
+    </row>
+    <row r="46" spans="1:83" ht="12.75" customHeight="1">
       <c r="A46" s="2"/>
       <c r="B46" s="6"/>
       <c r="C46" s="7"/>
@@ -4953,16 +5174,16 @@
       <c r="M46" s="13"/>
       <c r="N46" s="13"/>
       <c r="O46" s="13"/>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="1"/>
+      <c r="P46" s="13"/>
+      <c r="Q46" s="13"/>
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
       <c r="U46" s="1"/>
       <c r="V46" s="1"/>
-      <c r="W46" s="11"/>
+      <c r="W46" s="1"/>
       <c r="X46" s="1"/>
-      <c r="Y46" s="1"/>
+      <c r="Y46" s="11"/>
       <c r="Z46" s="1"/>
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
@@ -5001,8 +5222,8 @@
       <c r="BI46" s="1"/>
       <c r="BJ46" s="1"/>
       <c r="BK46" s="1"/>
-      <c r="BL46" s="8"/>
-      <c r="BM46" s="8"/>
+      <c r="BL46" s="1"/>
+      <c r="BM46" s="1"/>
       <c r="BN46" s="8"/>
       <c r="BO46" s="8"/>
       <c r="BP46" s="8"/>
@@ -5017,10 +5238,12 @@
       <c r="BY46" s="8"/>
       <c r="BZ46" s="8"/>
       <c r="CA46" s="8"/>
-      <c r="CB46" s="1"/>
+      <c r="CB46" s="8"/>
       <c r="CC46" s="8"/>
-    </row>
-    <row r="47" spans="1:81" ht="12.75" customHeight="1">
+      <c r="CD46" s="1"/>
+      <c r="CE46" s="8"/>
+    </row>
+    <row r="47" spans="1:83" ht="12.75" customHeight="1">
       <c r="A47" s="2"/>
       <c r="B47" s="6"/>
       <c r="C47" s="7"/>
@@ -5036,16 +5259,16 @@
       <c r="M47" s="13"/>
       <c r="N47" s="13"/>
       <c r="O47" s="13"/>
-      <c r="P47" s="1"/>
-      <c r="Q47" s="1"/>
+      <c r="P47" s="13"/>
+      <c r="Q47" s="13"/>
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
       <c r="U47" s="1"/>
       <c r="V47" s="1"/>
-      <c r="W47" s="11"/>
+      <c r="W47" s="1"/>
       <c r="X47" s="1"/>
-      <c r="Y47" s="1"/>
+      <c r="Y47" s="11"/>
       <c r="Z47" s="1"/>
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
@@ -5084,8 +5307,8 @@
       <c r="BI47" s="1"/>
       <c r="BJ47" s="1"/>
       <c r="BK47" s="1"/>
-      <c r="BL47" s="8"/>
-      <c r="BM47" s="8"/>
+      <c r="BL47" s="1"/>
+      <c r="BM47" s="1"/>
       <c r="BN47" s="8"/>
       <c r="BO47" s="8"/>
       <c r="BP47" s="8"/>
@@ -5100,10 +5323,12 @@
       <c r="BY47" s="8"/>
       <c r="BZ47" s="8"/>
       <c r="CA47" s="8"/>
-      <c r="CB47" s="1"/>
+      <c r="CB47" s="8"/>
       <c r="CC47" s="8"/>
-    </row>
-    <row r="48" spans="1:81" ht="12.75" customHeight="1">
+      <c r="CD47" s="1"/>
+      <c r="CE47" s="8"/>
+    </row>
+    <row r="48" spans="1:83" ht="12.75" customHeight="1">
       <c r="A48" s="2"/>
       <c r="B48" s="6"/>
       <c r="C48" s="7"/>
@@ -5119,16 +5344,16 @@
       <c r="M48" s="13"/>
       <c r="N48" s="13"/>
       <c r="O48" s="13"/>
-      <c r="P48" s="1"/>
-      <c r="Q48" s="1"/>
+      <c r="P48" s="13"/>
+      <c r="Q48" s="13"/>
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
       <c r="U48" s="1"/>
       <c r="V48" s="1"/>
-      <c r="W48" s="11"/>
+      <c r="W48" s="1"/>
       <c r="X48" s="1"/>
-      <c r="Y48" s="1"/>
+      <c r="Y48" s="11"/>
       <c r="Z48" s="1"/>
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
@@ -5167,8 +5392,8 @@
       <c r="BI48" s="1"/>
       <c r="BJ48" s="1"/>
       <c r="BK48" s="1"/>
-      <c r="BL48" s="8"/>
-      <c r="BM48" s="8"/>
+      <c r="BL48" s="1"/>
+      <c r="BM48" s="1"/>
       <c r="BN48" s="8"/>
       <c r="BO48" s="8"/>
       <c r="BP48" s="8"/>
@@ -5183,10 +5408,12 @@
       <c r="BY48" s="8"/>
       <c r="BZ48" s="8"/>
       <c r="CA48" s="8"/>
-      <c r="CB48" s="1"/>
+      <c r="CB48" s="8"/>
       <c r="CC48" s="8"/>
-    </row>
-    <row r="49" spans="1:81" ht="12.75" customHeight="1">
+      <c r="CD48" s="1"/>
+      <c r="CE48" s="8"/>
+    </row>
+    <row r="49" spans="1:83" ht="12.75" customHeight="1">
       <c r="A49" s="2"/>
       <c r="B49" s="6"/>
       <c r="C49" s="7"/>
@@ -5202,16 +5429,16 @@
       <c r="M49" s="13"/>
       <c r="N49" s="13"/>
       <c r="O49" s="13"/>
-      <c r="P49" s="1"/>
-      <c r="Q49" s="1"/>
+      <c r="P49" s="13"/>
+      <c r="Q49" s="13"/>
       <c r="R49" s="1"/>
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
       <c r="U49" s="1"/>
       <c r="V49" s="1"/>
-      <c r="W49" s="11"/>
+      <c r="W49" s="1"/>
       <c r="X49" s="1"/>
-      <c r="Y49" s="1"/>
+      <c r="Y49" s="11"/>
       <c r="Z49" s="1"/>
       <c r="AA49" s="1"/>
       <c r="AB49" s="1"/>
@@ -5250,8 +5477,8 @@
       <c r="BI49" s="1"/>
       <c r="BJ49" s="1"/>
       <c r="BK49" s="1"/>
-      <c r="BL49" s="8"/>
-      <c r="BM49" s="8"/>
+      <c r="BL49" s="1"/>
+      <c r="BM49" s="1"/>
       <c r="BN49" s="8"/>
       <c r="BO49" s="8"/>
       <c r="BP49" s="8"/>
@@ -5266,10 +5493,12 @@
       <c r="BY49" s="8"/>
       <c r="BZ49" s="8"/>
       <c r="CA49" s="8"/>
-      <c r="CB49" s="1"/>
+      <c r="CB49" s="8"/>
       <c r="CC49" s="8"/>
-    </row>
-    <row r="50" spans="1:81" ht="12.75" customHeight="1">
+      <c r="CD49" s="1"/>
+      <c r="CE49" s="8"/>
+    </row>
+    <row r="50" spans="1:83" ht="12.75" customHeight="1">
       <c r="A50" s="2"/>
       <c r="B50" s="6"/>
       <c r="C50" s="7"/>
@@ -5285,16 +5514,16 @@
       <c r="M50" s="13"/>
       <c r="N50" s="13"/>
       <c r="O50" s="13"/>
-      <c r="P50" s="1"/>
-      <c r="Q50" s="1"/>
+      <c r="P50" s="13"/>
+      <c r="Q50" s="13"/>
       <c r="R50" s="1"/>
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
       <c r="U50" s="1"/>
       <c r="V50" s="1"/>
-      <c r="W50" s="11"/>
+      <c r="W50" s="1"/>
       <c r="X50" s="1"/>
-      <c r="Y50" s="1"/>
+      <c r="Y50" s="11"/>
       <c r="Z50" s="1"/>
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
@@ -5333,8 +5562,8 @@
       <c r="BI50" s="1"/>
       <c r="BJ50" s="1"/>
       <c r="BK50" s="1"/>
-      <c r="BL50" s="8"/>
-      <c r="BM50" s="8"/>
+      <c r="BL50" s="1"/>
+      <c r="BM50" s="1"/>
       <c r="BN50" s="8"/>
       <c r="BO50" s="8"/>
       <c r="BP50" s="8"/>
@@ -5349,10 +5578,12 @@
       <c r="BY50" s="8"/>
       <c r="BZ50" s="8"/>
       <c r="CA50" s="8"/>
-      <c r="CB50" s="1"/>
+      <c r="CB50" s="8"/>
       <c r="CC50" s="8"/>
-    </row>
-    <row r="51" spans="1:81" ht="12.75" customHeight="1">
+      <c r="CD50" s="1"/>
+      <c r="CE50" s="8"/>
+    </row>
+    <row r="51" spans="1:83" ht="12.75" customHeight="1">
       <c r="A51" s="2"/>
       <c r="B51" s="6"/>
       <c r="C51" s="7"/>
@@ -5368,16 +5599,16 @@
       <c r="M51" s="13"/>
       <c r="N51" s="13"/>
       <c r="O51" s="13"/>
-      <c r="P51" s="1"/>
-      <c r="Q51" s="1"/>
+      <c r="P51" s="13"/>
+      <c r="Q51" s="13"/>
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
       <c r="U51" s="1"/>
       <c r="V51" s="1"/>
-      <c r="W51" s="11"/>
+      <c r="W51" s="1"/>
       <c r="X51" s="1"/>
-      <c r="Y51" s="1"/>
+      <c r="Y51" s="11"/>
       <c r="Z51" s="1"/>
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
@@ -5416,8 +5647,8 @@
       <c r="BI51" s="1"/>
       <c r="BJ51" s="1"/>
       <c r="BK51" s="1"/>
-      <c r="BL51" s="8"/>
-      <c r="BM51" s="8"/>
+      <c r="BL51" s="1"/>
+      <c r="BM51" s="1"/>
       <c r="BN51" s="8"/>
       <c r="BO51" s="8"/>
       <c r="BP51" s="8"/>
@@ -5432,10 +5663,12 @@
       <c r="BY51" s="8"/>
       <c r="BZ51" s="8"/>
       <c r="CA51" s="8"/>
-      <c r="CB51" s="1"/>
+      <c r="CB51" s="8"/>
       <c r="CC51" s="8"/>
-    </row>
-    <row r="52" spans="1:81" ht="12.75" customHeight="1">
+      <c r="CD51" s="1"/>
+      <c r="CE51" s="8"/>
+    </row>
+    <row r="52" spans="1:83" ht="12.75" customHeight="1">
       <c r="A52" s="2"/>
       <c r="B52" s="6"/>
       <c r="C52" s="7"/>
@@ -5451,16 +5684,16 @@
       <c r="M52" s="13"/>
       <c r="N52" s="13"/>
       <c r="O52" s="13"/>
-      <c r="P52" s="1"/>
-      <c r="Q52" s="1"/>
+      <c r="P52" s="13"/>
+      <c r="Q52" s="13"/>
       <c r="R52" s="1"/>
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
       <c r="U52" s="1"/>
       <c r="V52" s="1"/>
-      <c r="W52" s="11"/>
+      <c r="W52" s="1"/>
       <c r="X52" s="1"/>
-      <c r="Y52" s="1"/>
+      <c r="Y52" s="11"/>
       <c r="Z52" s="1"/>
       <c r="AA52" s="1"/>
       <c r="AB52" s="1"/>
@@ -5499,8 +5732,8 @@
       <c r="BI52" s="1"/>
       <c r="BJ52" s="1"/>
       <c r="BK52" s="1"/>
-      <c r="BL52" s="8"/>
-      <c r="BM52" s="8"/>
+      <c r="BL52" s="1"/>
+      <c r="BM52" s="1"/>
       <c r="BN52" s="8"/>
       <c r="BO52" s="8"/>
       <c r="BP52" s="8"/>
@@ -5515,10 +5748,12 @@
       <c r="BY52" s="8"/>
       <c r="BZ52" s="8"/>
       <c r="CA52" s="8"/>
-      <c r="CB52" s="1"/>
+      <c r="CB52" s="8"/>
       <c r="CC52" s="8"/>
-    </row>
-    <row r="53" spans="1:81" ht="12.75" customHeight="1">
+      <c r="CD52" s="1"/>
+      <c r="CE52" s="8"/>
+    </row>
+    <row r="53" spans="1:83" ht="12.75" customHeight="1">
       <c r="A53" s="2"/>
       <c r="B53" s="6"/>
       <c r="C53" s="7"/>
@@ -5534,16 +5769,16 @@
       <c r="M53" s="13"/>
       <c r="N53" s="13"/>
       <c r="O53" s="13"/>
-      <c r="P53" s="1"/>
-      <c r="Q53" s="1"/>
+      <c r="P53" s="13"/>
+      <c r="Q53" s="13"/>
       <c r="R53" s="1"/>
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
       <c r="U53" s="1"/>
       <c r="V53" s="1"/>
-      <c r="W53" s="11"/>
+      <c r="W53" s="1"/>
       <c r="X53" s="1"/>
-      <c r="Y53" s="1"/>
+      <c r="Y53" s="11"/>
       <c r="Z53" s="1"/>
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
@@ -5582,8 +5817,8 @@
       <c r="BI53" s="1"/>
       <c r="BJ53" s="1"/>
       <c r="BK53" s="1"/>
-      <c r="BL53" s="8"/>
-      <c r="BM53" s="8"/>
+      <c r="BL53" s="1"/>
+      <c r="BM53" s="1"/>
       <c r="BN53" s="8"/>
       <c r="BO53" s="8"/>
       <c r="BP53" s="8"/>
@@ -5598,10 +5833,12 @@
       <c r="BY53" s="8"/>
       <c r="BZ53" s="8"/>
       <c r="CA53" s="8"/>
-      <c r="CB53" s="1"/>
+      <c r="CB53" s="8"/>
       <c r="CC53" s="8"/>
-    </row>
-    <row r="54" spans="1:81" ht="12.75" customHeight="1">
+      <c r="CD53" s="1"/>
+      <c r="CE53" s="8"/>
+    </row>
+    <row r="54" spans="1:83" ht="12.75" customHeight="1">
       <c r="A54" s="2"/>
       <c r="B54" s="6"/>
       <c r="C54" s="7"/>
@@ -5617,16 +5854,16 @@
       <c r="M54" s="13"/>
       <c r="N54" s="13"/>
       <c r="O54" s="13"/>
-      <c r="P54" s="1"/>
-      <c r="Q54" s="1"/>
+      <c r="P54" s="13"/>
+      <c r="Q54" s="13"/>
       <c r="R54" s="1"/>
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
       <c r="U54" s="1"/>
       <c r="V54" s="1"/>
-      <c r="W54" s="11"/>
+      <c r="W54" s="1"/>
       <c r="X54" s="1"/>
-      <c r="Y54" s="1"/>
+      <c r="Y54" s="11"/>
       <c r="Z54" s="1"/>
       <c r="AA54" s="1"/>
       <c r="AB54" s="1"/>
@@ -5665,8 +5902,8 @@
       <c r="BI54" s="1"/>
       <c r="BJ54" s="1"/>
       <c r="BK54" s="1"/>
-      <c r="BL54" s="8"/>
-      <c r="BM54" s="8"/>
+      <c r="BL54" s="1"/>
+      <c r="BM54" s="1"/>
       <c r="BN54" s="8"/>
       <c r="BO54" s="8"/>
       <c r="BP54" s="8"/>
@@ -5681,10 +5918,12 @@
       <c r="BY54" s="8"/>
       <c r="BZ54" s="8"/>
       <c r="CA54" s="8"/>
-      <c r="CB54" s="1"/>
+      <c r="CB54" s="8"/>
       <c r="CC54" s="8"/>
-    </row>
-    <row r="55" spans="1:81" ht="12.75" customHeight="1">
+      <c r="CD54" s="1"/>
+      <c r="CE54" s="8"/>
+    </row>
+    <row r="55" spans="1:83" ht="12.75" customHeight="1">
       <c r="A55" s="2"/>
       <c r="B55" s="6"/>
       <c r="C55" s="7"/>
@@ -5700,16 +5939,16 @@
       <c r="M55" s="13"/>
       <c r="N55" s="13"/>
       <c r="O55" s="13"/>
-      <c r="P55" s="1"/>
-      <c r="Q55" s="1"/>
+      <c r="P55" s="13"/>
+      <c r="Q55" s="13"/>
       <c r="R55" s="1"/>
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
       <c r="U55" s="1"/>
       <c r="V55" s="1"/>
-      <c r="W55" s="11"/>
+      <c r="W55" s="1"/>
       <c r="X55" s="1"/>
-      <c r="Y55" s="1"/>
+      <c r="Y55" s="11"/>
       <c r="Z55" s="1"/>
       <c r="AA55" s="1"/>
       <c r="AB55" s="1"/>
@@ -5748,8 +5987,8 @@
       <c r="BI55" s="1"/>
       <c r="BJ55" s="1"/>
       <c r="BK55" s="1"/>
-      <c r="BL55" s="8"/>
-      <c r="BM55" s="8"/>
+      <c r="BL55" s="1"/>
+      <c r="BM55" s="1"/>
       <c r="BN55" s="8"/>
       <c r="BO55" s="8"/>
       <c r="BP55" s="8"/>
@@ -5764,10 +6003,12 @@
       <c r="BY55" s="8"/>
       <c r="BZ55" s="8"/>
       <c r="CA55" s="8"/>
-      <c r="CB55" s="1"/>
+      <c r="CB55" s="8"/>
       <c r="CC55" s="8"/>
-    </row>
-    <row r="56" spans="1:81" ht="12.75" customHeight="1">
+      <c r="CD55" s="1"/>
+      <c r="CE55" s="8"/>
+    </row>
+    <row r="56" spans="1:83" ht="12.75" customHeight="1">
       <c r="A56" s="2"/>
       <c r="B56" s="6"/>
       <c r="C56" s="7"/>
@@ -5783,16 +6024,16 @@
       <c r="M56" s="13"/>
       <c r="N56" s="13"/>
       <c r="O56" s="13"/>
-      <c r="P56" s="1"/>
-      <c r="Q56" s="1"/>
+      <c r="P56" s="13"/>
+      <c r="Q56" s="13"/>
       <c r="R56" s="1"/>
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
       <c r="U56" s="1"/>
       <c r="V56" s="1"/>
-      <c r="W56" s="11"/>
+      <c r="W56" s="1"/>
       <c r="X56" s="1"/>
-      <c r="Y56" s="1"/>
+      <c r="Y56" s="11"/>
       <c r="Z56" s="1"/>
       <c r="AA56" s="1"/>
       <c r="AB56" s="1"/>
@@ -5831,8 +6072,8 @@
       <c r="BI56" s="1"/>
       <c r="BJ56" s="1"/>
       <c r="BK56" s="1"/>
-      <c r="BL56" s="8"/>
-      <c r="BM56" s="8"/>
+      <c r="BL56" s="1"/>
+      <c r="BM56" s="1"/>
       <c r="BN56" s="8"/>
       <c r="BO56" s="8"/>
       <c r="BP56" s="8"/>
@@ -5847,10 +6088,12 @@
       <c r="BY56" s="8"/>
       <c r="BZ56" s="8"/>
       <c r="CA56" s="8"/>
-      <c r="CB56" s="1"/>
+      <c r="CB56" s="8"/>
       <c r="CC56" s="8"/>
-    </row>
-    <row r="57" spans="1:81" ht="12.75" customHeight="1">
+      <c r="CD56" s="1"/>
+      <c r="CE56" s="8"/>
+    </row>
+    <row r="57" spans="1:83" ht="12.75" customHeight="1">
       <c r="A57" s="2"/>
       <c r="B57" s="6"/>
       <c r="C57" s="7"/>
@@ -5866,16 +6109,16 @@
       <c r="M57" s="13"/>
       <c r="N57" s="13"/>
       <c r="O57" s="13"/>
-      <c r="P57" s="1"/>
-      <c r="Q57" s="1"/>
+      <c r="P57" s="13"/>
+      <c r="Q57" s="13"/>
       <c r="R57" s="1"/>
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
       <c r="U57" s="1"/>
       <c r="V57" s="1"/>
-      <c r="W57" s="11"/>
+      <c r="W57" s="1"/>
       <c r="X57" s="1"/>
-      <c r="Y57" s="1"/>
+      <c r="Y57" s="11"/>
       <c r="Z57" s="1"/>
       <c r="AA57" s="1"/>
       <c r="AB57" s="1"/>
@@ -5914,8 +6157,8 @@
       <c r="BI57" s="1"/>
       <c r="BJ57" s="1"/>
       <c r="BK57" s="1"/>
-      <c r="BL57" s="8"/>
-      <c r="BM57" s="8"/>
+      <c r="BL57" s="1"/>
+      <c r="BM57" s="1"/>
       <c r="BN57" s="8"/>
       <c r="BO57" s="8"/>
       <c r="BP57" s="8"/>
@@ -5930,10 +6173,12 @@
       <c r="BY57" s="8"/>
       <c r="BZ57" s="8"/>
       <c r="CA57" s="8"/>
-      <c r="CB57" s="1"/>
+      <c r="CB57" s="8"/>
       <c r="CC57" s="8"/>
-    </row>
-    <row r="58" spans="1:81" ht="12.75" customHeight="1">
+      <c r="CD57" s="1"/>
+      <c r="CE57" s="8"/>
+    </row>
+    <row r="58" spans="1:83" ht="12.75" customHeight="1">
       <c r="A58" s="2"/>
       <c r="B58" s="6"/>
       <c r="C58" s="7"/>
@@ -5949,16 +6194,16 @@
       <c r="M58" s="13"/>
       <c r="N58" s="13"/>
       <c r="O58" s="13"/>
-      <c r="P58" s="1"/>
-      <c r="Q58" s="1"/>
+      <c r="P58" s="13"/>
+      <c r="Q58" s="13"/>
       <c r="R58" s="1"/>
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
       <c r="U58" s="1"/>
       <c r="V58" s="1"/>
-      <c r="W58" s="11"/>
+      <c r="W58" s="1"/>
       <c r="X58" s="1"/>
-      <c r="Y58" s="1"/>
+      <c r="Y58" s="11"/>
       <c r="Z58" s="1"/>
       <c r="AA58" s="1"/>
       <c r="AB58" s="1"/>
@@ -5997,8 +6242,8 @@
       <c r="BI58" s="1"/>
       <c r="BJ58" s="1"/>
       <c r="BK58" s="1"/>
-      <c r="BL58" s="8"/>
-      <c r="BM58" s="8"/>
+      <c r="BL58" s="1"/>
+      <c r="BM58" s="1"/>
       <c r="BN58" s="8"/>
       <c r="BO58" s="8"/>
       <c r="BP58" s="8"/>
@@ -6013,10 +6258,12 @@
       <c r="BY58" s="8"/>
       <c r="BZ58" s="8"/>
       <c r="CA58" s="8"/>
-      <c r="CB58" s="1"/>
+      <c r="CB58" s="8"/>
       <c r="CC58" s="8"/>
-    </row>
-    <row r="59" spans="1:81" ht="12.75" customHeight="1">
+      <c r="CD58" s="1"/>
+      <c r="CE58" s="8"/>
+    </row>
+    <row r="59" spans="1:83" ht="12.75" customHeight="1">
       <c r="A59" s="2"/>
       <c r="B59" s="6"/>
       <c r="C59" s="7"/>
@@ -6032,16 +6279,16 @@
       <c r="M59" s="13"/>
       <c r="N59" s="13"/>
       <c r="O59" s="13"/>
-      <c r="P59" s="1"/>
-      <c r="Q59" s="1"/>
+      <c r="P59" s="13"/>
+      <c r="Q59" s="13"/>
       <c r="R59" s="1"/>
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
       <c r="U59" s="1"/>
       <c r="V59" s="1"/>
-      <c r="W59" s="11"/>
+      <c r="W59" s="1"/>
       <c r="X59" s="1"/>
-      <c r="Y59" s="1"/>
+      <c r="Y59" s="11"/>
       <c r="Z59" s="1"/>
       <c r="AA59" s="1"/>
       <c r="AB59" s="1"/>
@@ -6080,8 +6327,8 @@
       <c r="BI59" s="1"/>
       <c r="BJ59" s="1"/>
       <c r="BK59" s="1"/>
-      <c r="BL59" s="8"/>
-      <c r="BM59" s="8"/>
+      <c r="BL59" s="1"/>
+      <c r="BM59" s="1"/>
       <c r="BN59" s="8"/>
       <c r="BO59" s="8"/>
       <c r="BP59" s="8"/>
@@ -6096,10 +6343,12 @@
       <c r="BY59" s="8"/>
       <c r="BZ59" s="8"/>
       <c r="CA59" s="8"/>
-      <c r="CB59" s="1"/>
+      <c r="CB59" s="8"/>
       <c r="CC59" s="8"/>
-    </row>
-    <row r="60" spans="1:81" ht="12.75" customHeight="1">
+      <c r="CD59" s="1"/>
+      <c r="CE59" s="8"/>
+    </row>
+    <row r="60" spans="1:83" ht="12.75" customHeight="1">
       <c r="A60" s="2"/>
       <c r="B60" s="6"/>
       <c r="C60" s="7"/>
@@ -6115,16 +6364,16 @@
       <c r="M60" s="13"/>
       <c r="N60" s="13"/>
       <c r="O60" s="13"/>
-      <c r="P60" s="1"/>
-      <c r="Q60" s="1"/>
+      <c r="P60" s="13"/>
+      <c r="Q60" s="13"/>
       <c r="R60" s="1"/>
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
       <c r="U60" s="1"/>
       <c r="V60" s="1"/>
-      <c r="W60" s="11"/>
+      <c r="W60" s="1"/>
       <c r="X60" s="1"/>
-      <c r="Y60" s="1"/>
+      <c r="Y60" s="11"/>
       <c r="Z60" s="1"/>
       <c r="AA60" s="1"/>
       <c r="AB60" s="1"/>
@@ -6163,8 +6412,8 @@
       <c r="BI60" s="1"/>
       <c r="BJ60" s="1"/>
       <c r="BK60" s="1"/>
-      <c r="BL60" s="8"/>
-      <c r="BM60" s="8"/>
+      <c r="BL60" s="1"/>
+      <c r="BM60" s="1"/>
       <c r="BN60" s="8"/>
       <c r="BO60" s="8"/>
       <c r="BP60" s="8"/>
@@ -6179,10 +6428,12 @@
       <c r="BY60" s="8"/>
       <c r="BZ60" s="8"/>
       <c r="CA60" s="8"/>
-      <c r="CB60" s="1"/>
+      <c r="CB60" s="8"/>
       <c r="CC60" s="8"/>
-    </row>
-    <row r="61" spans="1:81" ht="12.75" customHeight="1">
+      <c r="CD60" s="1"/>
+      <c r="CE60" s="8"/>
+    </row>
+    <row r="61" spans="1:83" ht="12.75" customHeight="1">
       <c r="A61" s="2"/>
       <c r="B61" s="6"/>
       <c r="C61" s="7"/>
@@ -6198,16 +6449,16 @@
       <c r="M61" s="13"/>
       <c r="N61" s="13"/>
       <c r="O61" s="13"/>
-      <c r="P61" s="1"/>
-      <c r="Q61" s="1"/>
+      <c r="P61" s="13"/>
+      <c r="Q61" s="13"/>
       <c r="R61" s="1"/>
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
       <c r="U61" s="1"/>
       <c r="V61" s="1"/>
-      <c r="W61" s="11"/>
+      <c r="W61" s="1"/>
       <c r="X61" s="1"/>
-      <c r="Y61" s="1"/>
+      <c r="Y61" s="11"/>
       <c r="Z61" s="1"/>
       <c r="AA61" s="1"/>
       <c r="AB61" s="1"/>
@@ -6246,8 +6497,8 @@
       <c r="BI61" s="1"/>
       <c r="BJ61" s="1"/>
       <c r="BK61" s="1"/>
-      <c r="BL61" s="8"/>
-      <c r="BM61" s="8"/>
+      <c r="BL61" s="1"/>
+      <c r="BM61" s="1"/>
       <c r="BN61" s="8"/>
       <c r="BO61" s="8"/>
       <c r="BP61" s="8"/>
@@ -6262,10 +6513,12 @@
       <c r="BY61" s="8"/>
       <c r="BZ61" s="8"/>
       <c r="CA61" s="8"/>
-      <c r="CB61" s="1"/>
+      <c r="CB61" s="8"/>
       <c r="CC61" s="8"/>
-    </row>
-    <row r="62" spans="1:81" ht="12.75" customHeight="1">
+      <c r="CD61" s="1"/>
+      <c r="CE61" s="8"/>
+    </row>
+    <row r="62" spans="1:83" ht="12.75" customHeight="1">
       <c r="A62" s="2"/>
       <c r="B62" s="6"/>
       <c r="C62" s="7"/>
@@ -6281,16 +6534,16 @@
       <c r="M62" s="13"/>
       <c r="N62" s="13"/>
       <c r="O62" s="13"/>
-      <c r="P62" s="1"/>
-      <c r="Q62" s="1"/>
+      <c r="P62" s="13"/>
+      <c r="Q62" s="13"/>
       <c r="R62" s="1"/>
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
       <c r="U62" s="1"/>
       <c r="V62" s="1"/>
-      <c r="W62" s="11"/>
+      <c r="W62" s="1"/>
       <c r="X62" s="1"/>
-      <c r="Y62" s="1"/>
+      <c r="Y62" s="11"/>
       <c r="Z62" s="1"/>
       <c r="AA62" s="1"/>
       <c r="AB62" s="1"/>
@@ -6329,8 +6582,8 @@
       <c r="BI62" s="1"/>
       <c r="BJ62" s="1"/>
       <c r="BK62" s="1"/>
-      <c r="BL62" s="8"/>
-      <c r="BM62" s="8"/>
+      <c r="BL62" s="1"/>
+      <c r="BM62" s="1"/>
       <c r="BN62" s="8"/>
       <c r="BO62" s="8"/>
       <c r="BP62" s="8"/>
@@ -6345,10 +6598,12 @@
       <c r="BY62" s="8"/>
       <c r="BZ62" s="8"/>
       <c r="CA62" s="8"/>
-      <c r="CB62" s="1"/>
+      <c r="CB62" s="8"/>
       <c r="CC62" s="8"/>
-    </row>
-    <row r="63" spans="1:81" ht="12.75" customHeight="1">
+      <c r="CD62" s="1"/>
+      <c r="CE62" s="8"/>
+    </row>
+    <row r="63" spans="1:83" ht="12.75" customHeight="1">
       <c r="A63" s="2"/>
       <c r="B63" s="6"/>
       <c r="C63" s="7"/>
@@ -6364,16 +6619,16 @@
       <c r="M63" s="13"/>
       <c r="N63" s="13"/>
       <c r="O63" s="13"/>
-      <c r="P63" s="1"/>
-      <c r="Q63" s="1"/>
+      <c r="P63" s="13"/>
+      <c r="Q63" s="13"/>
       <c r="R63" s="1"/>
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
       <c r="U63" s="1"/>
       <c r="V63" s="1"/>
-      <c r="W63" s="11"/>
+      <c r="W63" s="1"/>
       <c r="X63" s="1"/>
-      <c r="Y63" s="1"/>
+      <c r="Y63" s="11"/>
       <c r="Z63" s="1"/>
       <c r="AA63" s="1"/>
       <c r="AB63" s="1"/>
@@ -6412,8 +6667,8 @@
       <c r="BI63" s="1"/>
       <c r="BJ63" s="1"/>
       <c r="BK63" s="1"/>
-      <c r="BL63" s="8"/>
-      <c r="BM63" s="8"/>
+      <c r="BL63" s="1"/>
+      <c r="BM63" s="1"/>
       <c r="BN63" s="8"/>
       <c r="BO63" s="8"/>
       <c r="BP63" s="8"/>
@@ -6428,10 +6683,12 @@
       <c r="BY63" s="8"/>
       <c r="BZ63" s="8"/>
       <c r="CA63" s="8"/>
-      <c r="CB63" s="1"/>
+      <c r="CB63" s="8"/>
       <c r="CC63" s="8"/>
-    </row>
-    <row r="64" spans="1:81" ht="12.75" customHeight="1">
+      <c r="CD63" s="1"/>
+      <c r="CE63" s="8"/>
+    </row>
+    <row r="64" spans="1:83" ht="12.75" customHeight="1">
       <c r="A64" s="2"/>
       <c r="B64" s="6"/>
       <c r="C64" s="7"/>
@@ -6447,16 +6704,16 @@
       <c r="M64" s="13"/>
       <c r="N64" s="13"/>
       <c r="O64" s="13"/>
-      <c r="P64" s="1"/>
-      <c r="Q64" s="1"/>
+      <c r="P64" s="13"/>
+      <c r="Q64" s="13"/>
       <c r="R64" s="1"/>
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
       <c r="U64" s="1"/>
       <c r="V64" s="1"/>
-      <c r="W64" s="11"/>
+      <c r="W64" s="1"/>
       <c r="X64" s="1"/>
-      <c r="Y64" s="1"/>
+      <c r="Y64" s="11"/>
       <c r="Z64" s="1"/>
       <c r="AA64" s="1"/>
       <c r="AB64" s="1"/>
@@ -6495,8 +6752,8 @@
       <c r="BI64" s="1"/>
       <c r="BJ64" s="1"/>
       <c r="BK64" s="1"/>
-      <c r="BL64" s="8"/>
-      <c r="BM64" s="8"/>
+      <c r="BL64" s="1"/>
+      <c r="BM64" s="1"/>
       <c r="BN64" s="8"/>
       <c r="BO64" s="8"/>
       <c r="BP64" s="8"/>
@@ -6511,10 +6768,12 @@
       <c r="BY64" s="8"/>
       <c r="BZ64" s="8"/>
       <c r="CA64" s="8"/>
-      <c r="CB64" s="1"/>
+      <c r="CB64" s="8"/>
       <c r="CC64" s="8"/>
-    </row>
-    <row r="65" spans="1:81" ht="12.75" customHeight="1">
+      <c r="CD64" s="1"/>
+      <c r="CE64" s="8"/>
+    </row>
+    <row r="65" spans="1:83" ht="12.75" customHeight="1">
       <c r="A65" s="2"/>
       <c r="B65" s="6"/>
       <c r="C65" s="7"/>
@@ -6537,9 +6796,9 @@
       <c r="T65" s="1"/>
       <c r="U65" s="1"/>
       <c r="V65" s="1"/>
-      <c r="W65" s="11"/>
+      <c r="W65" s="1"/>
       <c r="X65" s="1"/>
-      <c r="Y65" s="1"/>
+      <c r="Y65" s="11"/>
       <c r="Z65" s="1"/>
       <c r="AA65" s="1"/>
       <c r="AB65" s="1"/>
@@ -6578,8 +6837,8 @@
       <c r="BI65" s="1"/>
       <c r="BJ65" s="1"/>
       <c r="BK65" s="1"/>
-      <c r="BL65" s="8"/>
-      <c r="BM65" s="8"/>
+      <c r="BL65" s="1"/>
+      <c r="BM65" s="1"/>
       <c r="BN65" s="8"/>
       <c r="BO65" s="8"/>
       <c r="BP65" s="8"/>
@@ -6594,10 +6853,12 @@
       <c r="BY65" s="8"/>
       <c r="BZ65" s="8"/>
       <c r="CA65" s="8"/>
-      <c r="CB65" s="1"/>
+      <c r="CB65" s="8"/>
       <c r="CC65" s="8"/>
-    </row>
-    <row r="66" spans="1:81" ht="12.75" customHeight="1">
+      <c r="CD65" s="1"/>
+      <c r="CE65" s="8"/>
+    </row>
+    <row r="66" spans="1:83" ht="12.75" customHeight="1">
       <c r="A66" s="2"/>
       <c r="B66" s="6"/>
       <c r="C66" s="7"/>
@@ -6620,9 +6881,9 @@
       <c r="T66" s="1"/>
       <c r="U66" s="1"/>
       <c r="V66" s="1"/>
-      <c r="W66" s="11"/>
+      <c r="W66" s="1"/>
       <c r="X66" s="1"/>
-      <c r="Y66" s="1"/>
+      <c r="Y66" s="11"/>
       <c r="Z66" s="1"/>
       <c r="AA66" s="1"/>
       <c r="AB66" s="1"/>
@@ -6661,8 +6922,8 @@
       <c r="BI66" s="1"/>
       <c r="BJ66" s="1"/>
       <c r="BK66" s="1"/>
-      <c r="BL66" s="8"/>
-      <c r="BM66" s="8"/>
+      <c r="BL66" s="1"/>
+      <c r="BM66" s="1"/>
       <c r="BN66" s="8"/>
       <c r="BO66" s="8"/>
       <c r="BP66" s="8"/>
@@ -6677,10 +6938,12 @@
       <c r="BY66" s="8"/>
       <c r="BZ66" s="8"/>
       <c r="CA66" s="8"/>
-      <c r="CB66" s="1"/>
+      <c r="CB66" s="8"/>
       <c r="CC66" s="8"/>
-    </row>
-    <row r="67" spans="1:81" ht="12.75" customHeight="1">
+      <c r="CD66" s="1"/>
+      <c r="CE66" s="8"/>
+    </row>
+    <row r="67" spans="1:83" ht="12.75" customHeight="1">
       <c r="A67" s="2"/>
       <c r="B67" s="6"/>
       <c r="C67" s="7"/>
@@ -6703,9 +6966,9 @@
       <c r="T67" s="1"/>
       <c r="U67" s="1"/>
       <c r="V67" s="1"/>
-      <c r="W67" s="11"/>
+      <c r="W67" s="1"/>
       <c r="X67" s="1"/>
-      <c r="Y67" s="1"/>
+      <c r="Y67" s="11"/>
       <c r="Z67" s="1"/>
       <c r="AA67" s="1"/>
       <c r="AB67" s="1"/>
@@ -6744,8 +7007,8 @@
       <c r="BI67" s="1"/>
       <c r="BJ67" s="1"/>
       <c r="BK67" s="1"/>
-      <c r="BL67" s="8"/>
-      <c r="BM67" s="8"/>
+      <c r="BL67" s="1"/>
+      <c r="BM67" s="1"/>
       <c r="BN67" s="8"/>
       <c r="BO67" s="8"/>
       <c r="BP67" s="8"/>
@@ -6760,10 +7023,12 @@
       <c r="BY67" s="8"/>
       <c r="BZ67" s="8"/>
       <c r="CA67" s="8"/>
-      <c r="CB67" s="1"/>
+      <c r="CB67" s="8"/>
       <c r="CC67" s="8"/>
-    </row>
-    <row r="68" spans="1:81" ht="12.75" customHeight="1">
+      <c r="CD67" s="1"/>
+      <c r="CE67" s="8"/>
+    </row>
+    <row r="68" spans="1:83" ht="12.75" customHeight="1">
       <c r="A68" s="2"/>
       <c r="B68" s="6"/>
       <c r="C68" s="7"/>
@@ -6786,9 +7051,9 @@
       <c r="T68" s="1"/>
       <c r="U68" s="1"/>
       <c r="V68" s="1"/>
-      <c r="W68" s="11"/>
+      <c r="W68" s="1"/>
       <c r="X68" s="1"/>
-      <c r="Y68" s="1"/>
+      <c r="Y68" s="11"/>
       <c r="Z68" s="1"/>
       <c r="AA68" s="1"/>
       <c r="AB68" s="1"/>
@@ -6827,8 +7092,8 @@
       <c r="BI68" s="1"/>
       <c r="BJ68" s="1"/>
       <c r="BK68" s="1"/>
-      <c r="BL68" s="8"/>
-      <c r="BM68" s="8"/>
+      <c r="BL68" s="1"/>
+      <c r="BM68" s="1"/>
       <c r="BN68" s="8"/>
       <c r="BO68" s="8"/>
       <c r="BP68" s="8"/>
@@ -6843,10 +7108,12 @@
       <c r="BY68" s="8"/>
       <c r="BZ68" s="8"/>
       <c r="CA68" s="8"/>
-      <c r="CB68" s="1"/>
+      <c r="CB68" s="8"/>
       <c r="CC68" s="8"/>
-    </row>
-    <row r="69" spans="1:81" ht="12.75" customHeight="1">
+      <c r="CD68" s="1"/>
+      <c r="CE68" s="8"/>
+    </row>
+    <row r="69" spans="1:83" ht="12.75" customHeight="1">
       <c r="A69" s="2"/>
       <c r="B69" s="6"/>
       <c r="C69" s="7"/>
@@ -6869,9 +7136,9 @@
       <c r="T69" s="1"/>
       <c r="U69" s="1"/>
       <c r="V69" s="1"/>
-      <c r="W69" s="11"/>
+      <c r="W69" s="1"/>
       <c r="X69" s="1"/>
-      <c r="Y69" s="1"/>
+      <c r="Y69" s="11"/>
       <c r="Z69" s="1"/>
       <c r="AA69" s="1"/>
       <c r="AB69" s="1"/>
@@ -6910,8 +7177,8 @@
       <c r="BI69" s="1"/>
       <c r="BJ69" s="1"/>
       <c r="BK69" s="1"/>
-      <c r="BL69" s="8"/>
-      <c r="BM69" s="8"/>
+      <c r="BL69" s="1"/>
+      <c r="BM69" s="1"/>
       <c r="BN69" s="8"/>
       <c r="BO69" s="8"/>
       <c r="BP69" s="8"/>
@@ -6926,10 +7193,12 @@
       <c r="BY69" s="8"/>
       <c r="BZ69" s="8"/>
       <c r="CA69" s="8"/>
-      <c r="CB69" s="1"/>
+      <c r="CB69" s="8"/>
       <c r="CC69" s="8"/>
-    </row>
-    <row r="70" spans="1:81" ht="12.75" customHeight="1">
+      <c r="CD69" s="1"/>
+      <c r="CE69" s="8"/>
+    </row>
+    <row r="70" spans="1:83" ht="12.75" customHeight="1">
       <c r="A70" s="2"/>
       <c r="B70" s="6"/>
       <c r="C70" s="7"/>
@@ -6952,9 +7221,9 @@
       <c r="T70" s="1"/>
       <c r="U70" s="1"/>
       <c r="V70" s="1"/>
-      <c r="W70" s="11"/>
+      <c r="W70" s="1"/>
       <c r="X70" s="1"/>
-      <c r="Y70" s="1"/>
+      <c r="Y70" s="11"/>
       <c r="Z70" s="1"/>
       <c r="AA70" s="1"/>
       <c r="AB70" s="1"/>
@@ -6993,8 +7262,8 @@
       <c r="BI70" s="1"/>
       <c r="BJ70" s="1"/>
       <c r="BK70" s="1"/>
-      <c r="BL70" s="8"/>
-      <c r="BM70" s="8"/>
+      <c r="BL70" s="1"/>
+      <c r="BM70" s="1"/>
       <c r="BN70" s="8"/>
       <c r="BO70" s="8"/>
       <c r="BP70" s="8"/>
@@ -7009,10 +7278,12 @@
       <c r="BY70" s="8"/>
       <c r="BZ70" s="8"/>
       <c r="CA70" s="8"/>
-      <c r="CB70" s="1"/>
+      <c r="CB70" s="8"/>
       <c r="CC70" s="8"/>
-    </row>
-    <row r="71" spans="1:81" ht="12.75" customHeight="1">
+      <c r="CD70" s="1"/>
+      <c r="CE70" s="8"/>
+    </row>
+    <row r="71" spans="1:83" ht="12.75" customHeight="1">
       <c r="A71" s="2"/>
       <c r="B71" s="6"/>
       <c r="C71" s="7"/>
@@ -7035,9 +7306,9 @@
       <c r="T71" s="1"/>
       <c r="U71" s="1"/>
       <c r="V71" s="1"/>
-      <c r="W71" s="11"/>
+      <c r="W71" s="1"/>
       <c r="X71" s="1"/>
-      <c r="Y71" s="1"/>
+      <c r="Y71" s="11"/>
       <c r="Z71" s="1"/>
       <c r="AA71" s="1"/>
       <c r="AB71" s="1"/>
@@ -7076,8 +7347,8 @@
       <c r="BI71" s="1"/>
       <c r="BJ71" s="1"/>
       <c r="BK71" s="1"/>
-      <c r="BL71" s="8"/>
-      <c r="BM71" s="8"/>
+      <c r="BL71" s="1"/>
+      <c r="BM71" s="1"/>
       <c r="BN71" s="8"/>
       <c r="BO71" s="8"/>
       <c r="BP71" s="8"/>
@@ -7092,10 +7363,12 @@
       <c r="BY71" s="8"/>
       <c r="BZ71" s="8"/>
       <c r="CA71" s="8"/>
-      <c r="CB71" s="1"/>
+      <c r="CB71" s="8"/>
       <c r="CC71" s="8"/>
-    </row>
-    <row r="72" spans="1:81" ht="12.75" customHeight="1">
+      <c r="CD71" s="1"/>
+      <c r="CE71" s="8"/>
+    </row>
+    <row r="72" spans="1:83" ht="12.75" customHeight="1">
       <c r="A72" s="2"/>
       <c r="B72" s="6"/>
       <c r="C72" s="7"/>
@@ -7118,9 +7391,9 @@
       <c r="T72" s="1"/>
       <c r="U72" s="1"/>
       <c r="V72" s="1"/>
-      <c r="W72" s="11"/>
+      <c r="W72" s="1"/>
       <c r="X72" s="1"/>
-      <c r="Y72" s="1"/>
+      <c r="Y72" s="11"/>
       <c r="Z72" s="1"/>
       <c r="AA72" s="1"/>
       <c r="AB72" s="1"/>
@@ -7159,8 +7432,8 @@
       <c r="BI72" s="1"/>
       <c r="BJ72" s="1"/>
       <c r="BK72" s="1"/>
-      <c r="BL72" s="8"/>
-      <c r="BM72" s="8"/>
+      <c r="BL72" s="1"/>
+      <c r="BM72" s="1"/>
       <c r="BN72" s="8"/>
       <c r="BO72" s="8"/>
       <c r="BP72" s="8"/>
@@ -7175,10 +7448,12 @@
       <c r="BY72" s="8"/>
       <c r="BZ72" s="8"/>
       <c r="CA72" s="8"/>
-      <c r="CB72" s="1"/>
+      <c r="CB72" s="8"/>
       <c r="CC72" s="8"/>
-    </row>
-    <row r="73" spans="1:81" ht="12.75" customHeight="1">
+      <c r="CD72" s="1"/>
+      <c r="CE72" s="8"/>
+    </row>
+    <row r="73" spans="1:83" ht="12.75" customHeight="1">
       <c r="A73" s="2"/>
       <c r="B73" s="6"/>
       <c r="C73" s="7"/>
@@ -7201,9 +7476,9 @@
       <c r="T73" s="1"/>
       <c r="U73" s="1"/>
       <c r="V73" s="1"/>
-      <c r="W73" s="11"/>
+      <c r="W73" s="1"/>
       <c r="X73" s="1"/>
-      <c r="Y73" s="1"/>
+      <c r="Y73" s="11"/>
       <c r="Z73" s="1"/>
       <c r="AA73" s="1"/>
       <c r="AB73" s="1"/>
@@ -7242,8 +7517,8 @@
       <c r="BI73" s="1"/>
       <c r="BJ73" s="1"/>
       <c r="BK73" s="1"/>
-      <c r="BL73" s="8"/>
-      <c r="BM73" s="8"/>
+      <c r="BL73" s="1"/>
+      <c r="BM73" s="1"/>
       <c r="BN73" s="8"/>
       <c r="BO73" s="8"/>
       <c r="BP73" s="8"/>
@@ -7258,10 +7533,12 @@
       <c r="BY73" s="8"/>
       <c r="BZ73" s="8"/>
       <c r="CA73" s="8"/>
-      <c r="CB73" s="1"/>
+      <c r="CB73" s="8"/>
       <c r="CC73" s="8"/>
-    </row>
-    <row r="74" spans="1:81" ht="12.75" customHeight="1">
+      <c r="CD73" s="1"/>
+      <c r="CE73" s="8"/>
+    </row>
+    <row r="74" spans="1:83" ht="12.75" customHeight="1">
       <c r="A74" s="2"/>
       <c r="B74" s="6"/>
       <c r="C74" s="7"/>
@@ -7284,9 +7561,9 @@
       <c r="T74" s="1"/>
       <c r="U74" s="1"/>
       <c r="V74" s="1"/>
-      <c r="W74" s="11"/>
+      <c r="W74" s="1"/>
       <c r="X74" s="1"/>
-      <c r="Y74" s="1"/>
+      <c r="Y74" s="11"/>
       <c r="Z74" s="1"/>
       <c r="AA74" s="1"/>
       <c r="AB74" s="1"/>
@@ -7325,8 +7602,8 @@
       <c r="BI74" s="1"/>
       <c r="BJ74" s="1"/>
       <c r="BK74" s="1"/>
-      <c r="BL74" s="8"/>
-      <c r="BM74" s="8"/>
+      <c r="BL74" s="1"/>
+      <c r="BM74" s="1"/>
       <c r="BN74" s="8"/>
       <c r="BO74" s="8"/>
       <c r="BP74" s="8"/>
@@ -7341,10 +7618,12 @@
       <c r="BY74" s="8"/>
       <c r="BZ74" s="8"/>
       <c r="CA74" s="8"/>
-      <c r="CB74" s="1"/>
+      <c r="CB74" s="8"/>
       <c r="CC74" s="8"/>
-    </row>
-    <row r="75" spans="1:81" ht="12.75" customHeight="1">
+      <c r="CD74" s="1"/>
+      <c r="CE74" s="8"/>
+    </row>
+    <row r="75" spans="1:83" ht="12.75" customHeight="1">
       <c r="A75" s="2"/>
       <c r="B75" s="6"/>
       <c r="C75" s="7"/>
@@ -7367,9 +7646,9 @@
       <c r="T75" s="1"/>
       <c r="U75" s="1"/>
       <c r="V75" s="1"/>
-      <c r="W75" s="11"/>
+      <c r="W75" s="1"/>
       <c r="X75" s="1"/>
-      <c r="Y75" s="1"/>
+      <c r="Y75" s="11"/>
       <c r="Z75" s="1"/>
       <c r="AA75" s="1"/>
       <c r="AB75" s="1"/>
@@ -7408,8 +7687,8 @@
       <c r="BI75" s="1"/>
       <c r="BJ75" s="1"/>
       <c r="BK75" s="1"/>
-      <c r="BL75" s="8"/>
-      <c r="BM75" s="8"/>
+      <c r="BL75" s="1"/>
+      <c r="BM75" s="1"/>
       <c r="BN75" s="8"/>
       <c r="BO75" s="8"/>
       <c r="BP75" s="8"/>
@@ -7424,10 +7703,12 @@
       <c r="BY75" s="8"/>
       <c r="BZ75" s="8"/>
       <c r="CA75" s="8"/>
-      <c r="CB75" s="1"/>
+      <c r="CB75" s="8"/>
       <c r="CC75" s="8"/>
-    </row>
-    <row r="76" spans="1:81" ht="12.75" customHeight="1">
+      <c r="CD75" s="1"/>
+      <c r="CE75" s="8"/>
+    </row>
+    <row r="76" spans="1:83" ht="12.75" customHeight="1">
       <c r="A76" s="2"/>
       <c r="B76" s="6"/>
       <c r="C76" s="7"/>
@@ -7450,9 +7731,9 @@
       <c r="T76" s="1"/>
       <c r="U76" s="1"/>
       <c r="V76" s="1"/>
-      <c r="W76" s="11"/>
+      <c r="W76" s="1"/>
       <c r="X76" s="1"/>
-      <c r="Y76" s="1"/>
+      <c r="Y76" s="11"/>
       <c r="Z76" s="1"/>
       <c r="AA76" s="1"/>
       <c r="AB76" s="1"/>
@@ -7491,8 +7772,8 @@
       <c r="BI76" s="1"/>
       <c r="BJ76" s="1"/>
       <c r="BK76" s="1"/>
-      <c r="BL76" s="8"/>
-      <c r="BM76" s="8"/>
+      <c r="BL76" s="1"/>
+      <c r="BM76" s="1"/>
       <c r="BN76" s="8"/>
       <c r="BO76" s="8"/>
       <c r="BP76" s="8"/>
@@ -7507,10 +7788,12 @@
       <c r="BY76" s="8"/>
       <c r="BZ76" s="8"/>
       <c r="CA76" s="8"/>
-      <c r="CB76" s="1"/>
+      <c r="CB76" s="8"/>
       <c r="CC76" s="8"/>
-    </row>
-    <row r="77" spans="1:81" ht="12.75" customHeight="1">
+      <c r="CD76" s="1"/>
+      <c r="CE76" s="8"/>
+    </row>
+    <row r="77" spans="1:83" ht="12.75" customHeight="1">
       <c r="A77" s="2"/>
       <c r="B77" s="6"/>
       <c r="C77" s="7"/>
@@ -7533,9 +7816,9 @@
       <c r="T77" s="1"/>
       <c r="U77" s="1"/>
       <c r="V77" s="1"/>
-      <c r="W77" s="11"/>
+      <c r="W77" s="1"/>
       <c r="X77" s="1"/>
-      <c r="Y77" s="1"/>
+      <c r="Y77" s="11"/>
       <c r="Z77" s="1"/>
       <c r="AA77" s="1"/>
       <c r="AB77" s="1"/>
@@ -7574,8 +7857,8 @@
       <c r="BI77" s="1"/>
       <c r="BJ77" s="1"/>
       <c r="BK77" s="1"/>
-      <c r="BL77" s="8"/>
-      <c r="BM77" s="8"/>
+      <c r="BL77" s="1"/>
+      <c r="BM77" s="1"/>
       <c r="BN77" s="8"/>
       <c r="BO77" s="8"/>
       <c r="BP77" s="8"/>
@@ -7590,10 +7873,12 @@
       <c r="BY77" s="8"/>
       <c r="BZ77" s="8"/>
       <c r="CA77" s="8"/>
-      <c r="CB77" s="1"/>
+      <c r="CB77" s="8"/>
       <c r="CC77" s="8"/>
-    </row>
-    <row r="78" spans="1:81" ht="12.75" customHeight="1">
+      <c r="CD77" s="1"/>
+      <c r="CE77" s="8"/>
+    </row>
+    <row r="78" spans="1:83" ht="12.75" customHeight="1">
       <c r="A78" s="2"/>
       <c r="B78" s="6"/>
       <c r="C78" s="7"/>
@@ -7616,9 +7901,9 @@
       <c r="T78" s="1"/>
       <c r="U78" s="1"/>
       <c r="V78" s="1"/>
-      <c r="W78" s="11"/>
+      <c r="W78" s="1"/>
       <c r="X78" s="1"/>
-      <c r="Y78" s="1"/>
+      <c r="Y78" s="11"/>
       <c r="Z78" s="1"/>
       <c r="AA78" s="1"/>
       <c r="AB78" s="1"/>
@@ -7657,8 +7942,8 @@
       <c r="BI78" s="1"/>
       <c r="BJ78" s="1"/>
       <c r="BK78" s="1"/>
-      <c r="BL78" s="8"/>
-      <c r="BM78" s="8"/>
+      <c r="BL78" s="1"/>
+      <c r="BM78" s="1"/>
       <c r="BN78" s="8"/>
       <c r="BO78" s="8"/>
       <c r="BP78" s="8"/>
@@ -7673,10 +7958,12 @@
       <c r="BY78" s="8"/>
       <c r="BZ78" s="8"/>
       <c r="CA78" s="8"/>
-      <c r="CB78" s="1"/>
+      <c r="CB78" s="8"/>
       <c r="CC78" s="8"/>
-    </row>
-    <row r="79" spans="1:81" ht="12.75" customHeight="1">
+      <c r="CD78" s="1"/>
+      <c r="CE78" s="8"/>
+    </row>
+    <row r="79" spans="1:83" ht="12.75" customHeight="1">
       <c r="A79" s="2"/>
       <c r="B79" s="6"/>
       <c r="C79" s="7"/>
@@ -7699,9 +7986,9 @@
       <c r="T79" s="1"/>
       <c r="U79" s="1"/>
       <c r="V79" s="1"/>
-      <c r="W79" s="11"/>
+      <c r="W79" s="1"/>
       <c r="X79" s="1"/>
-      <c r="Y79" s="1"/>
+      <c r="Y79" s="11"/>
       <c r="Z79" s="1"/>
       <c r="AA79" s="1"/>
       <c r="AB79" s="1"/>
@@ -7740,8 +8027,8 @@
       <c r="BI79" s="1"/>
       <c r="BJ79" s="1"/>
       <c r="BK79" s="1"/>
-      <c r="BL79" s="8"/>
-      <c r="BM79" s="8"/>
+      <c r="BL79" s="1"/>
+      <c r="BM79" s="1"/>
       <c r="BN79" s="8"/>
       <c r="BO79" s="8"/>
       <c r="BP79" s="8"/>
@@ -7756,10 +8043,12 @@
       <c r="BY79" s="8"/>
       <c r="BZ79" s="8"/>
       <c r="CA79" s="8"/>
-      <c r="CB79" s="1"/>
+      <c r="CB79" s="8"/>
       <c r="CC79" s="8"/>
-    </row>
-    <row r="80" spans="1:81" ht="12.75" customHeight="1">
+      <c r="CD79" s="1"/>
+      <c r="CE79" s="8"/>
+    </row>
+    <row r="80" spans="1:83" ht="12.75" customHeight="1">
       <c r="A80" s="2"/>
       <c r="B80" s="6"/>
       <c r="C80" s="7"/>
@@ -7782,9 +8071,9 @@
       <c r="T80" s="1"/>
       <c r="U80" s="1"/>
       <c r="V80" s="1"/>
-      <c r="W80" s="11"/>
+      <c r="W80" s="1"/>
       <c r="X80" s="1"/>
-      <c r="Y80" s="1"/>
+      <c r="Y80" s="11"/>
       <c r="Z80" s="1"/>
       <c r="AA80" s="1"/>
       <c r="AB80" s="1"/>
@@ -7823,8 +8112,8 @@
       <c r="BI80" s="1"/>
       <c r="BJ80" s="1"/>
       <c r="BK80" s="1"/>
-      <c r="BL80" s="8"/>
-      <c r="BM80" s="8"/>
+      <c r="BL80" s="1"/>
+      <c r="BM80" s="1"/>
       <c r="BN80" s="8"/>
       <c r="BO80" s="8"/>
       <c r="BP80" s="8"/>
@@ -7839,10 +8128,12 @@
       <c r="BY80" s="8"/>
       <c r="BZ80" s="8"/>
       <c r="CA80" s="8"/>
-      <c r="CB80" s="1"/>
+      <c r="CB80" s="8"/>
       <c r="CC80" s="8"/>
-    </row>
-    <row r="81" spans="1:81" ht="12.75" customHeight="1">
+      <c r="CD80" s="1"/>
+      <c r="CE80" s="8"/>
+    </row>
+    <row r="81" spans="1:83" ht="12.75" customHeight="1">
       <c r="A81" s="2"/>
       <c r="B81" s="6"/>
       <c r="C81" s="7"/>
@@ -7865,9 +8156,9 @@
       <c r="T81" s="1"/>
       <c r="U81" s="1"/>
       <c r="V81" s="1"/>
-      <c r="W81" s="11"/>
+      <c r="W81" s="1"/>
       <c r="X81" s="1"/>
-      <c r="Y81" s="1"/>
+      <c r="Y81" s="11"/>
       <c r="Z81" s="1"/>
       <c r="AA81" s="1"/>
       <c r="AB81" s="1"/>
@@ -7906,8 +8197,8 @@
       <c r="BI81" s="1"/>
       <c r="BJ81" s="1"/>
       <c r="BK81" s="1"/>
-      <c r="BL81" s="8"/>
-      <c r="BM81" s="8"/>
+      <c r="BL81" s="1"/>
+      <c r="BM81" s="1"/>
       <c r="BN81" s="8"/>
       <c r="BO81" s="8"/>
       <c r="BP81" s="8"/>
@@ -7922,10 +8213,12 @@
       <c r="BY81" s="8"/>
       <c r="BZ81" s="8"/>
       <c r="CA81" s="8"/>
-      <c r="CB81" s="1"/>
+      <c r="CB81" s="8"/>
       <c r="CC81" s="8"/>
-    </row>
-    <row r="82" spans="1:81" ht="12.75" customHeight="1">
+      <c r="CD81" s="1"/>
+      <c r="CE81" s="8"/>
+    </row>
+    <row r="82" spans="1:83" ht="12.75" customHeight="1">
       <c r="A82" s="2"/>
       <c r="B82" s="6"/>
       <c r="C82" s="7"/>
@@ -7948,9 +8241,9 @@
       <c r="T82" s="1"/>
       <c r="U82" s="1"/>
       <c r="V82" s="1"/>
-      <c r="W82" s="11"/>
+      <c r="W82" s="1"/>
       <c r="X82" s="1"/>
-      <c r="Y82" s="1"/>
+      <c r="Y82" s="11"/>
       <c r="Z82" s="1"/>
       <c r="AA82" s="1"/>
       <c r="AB82" s="1"/>
@@ -7989,8 +8282,8 @@
       <c r="BI82" s="1"/>
       <c r="BJ82" s="1"/>
       <c r="BK82" s="1"/>
-      <c r="BL82" s="8"/>
-      <c r="BM82" s="8"/>
+      <c r="BL82" s="1"/>
+      <c r="BM82" s="1"/>
       <c r="BN82" s="8"/>
       <c r="BO82" s="8"/>
       <c r="BP82" s="8"/>
@@ -8005,10 +8298,12 @@
       <c r="BY82" s="8"/>
       <c r="BZ82" s="8"/>
       <c r="CA82" s="8"/>
-      <c r="CB82" s="1"/>
+      <c r="CB82" s="8"/>
       <c r="CC82" s="8"/>
-    </row>
-    <row r="83" spans="1:81" ht="12.75" customHeight="1">
+      <c r="CD82" s="1"/>
+      <c r="CE82" s="8"/>
+    </row>
+    <row r="83" spans="1:83" ht="12.75" customHeight="1">
       <c r="A83" s="2"/>
       <c r="B83" s="6"/>
       <c r="C83" s="7"/>
@@ -8031,9 +8326,9 @@
       <c r="T83" s="1"/>
       <c r="U83" s="1"/>
       <c r="V83" s="1"/>
-      <c r="W83" s="11"/>
+      <c r="W83" s="1"/>
       <c r="X83" s="1"/>
-      <c r="Y83" s="1"/>
+      <c r="Y83" s="11"/>
       <c r="Z83" s="1"/>
       <c r="AA83" s="1"/>
       <c r="AB83" s="1"/>
@@ -8072,8 +8367,8 @@
       <c r="BI83" s="1"/>
       <c r="BJ83" s="1"/>
       <c r="BK83" s="1"/>
-      <c r="BL83" s="8"/>
-      <c r="BM83" s="8"/>
+      <c r="BL83" s="1"/>
+      <c r="BM83" s="1"/>
       <c r="BN83" s="8"/>
       <c r="BO83" s="8"/>
       <c r="BP83" s="8"/>
@@ -8088,10 +8383,12 @@
       <c r="BY83" s="8"/>
       <c r="BZ83" s="8"/>
       <c r="CA83" s="8"/>
-      <c r="CB83" s="1"/>
+      <c r="CB83" s="8"/>
       <c r="CC83" s="8"/>
-    </row>
-    <row r="84" spans="1:81" ht="12.75" customHeight="1">
+      <c r="CD83" s="1"/>
+      <c r="CE83" s="8"/>
+    </row>
+    <row r="84" spans="1:83" ht="12.75" customHeight="1">
       <c r="A84" s="2"/>
       <c r="B84" s="6"/>
       <c r="C84" s="7"/>
@@ -8114,9 +8411,9 @@
       <c r="T84" s="1"/>
       <c r="U84" s="1"/>
       <c r="V84" s="1"/>
-      <c r="W84" s="11"/>
+      <c r="W84" s="1"/>
       <c r="X84" s="1"/>
-      <c r="Y84" s="1"/>
+      <c r="Y84" s="11"/>
       <c r="Z84" s="1"/>
       <c r="AA84" s="1"/>
       <c r="AB84" s="1"/>
@@ -8155,8 +8452,8 @@
       <c r="BI84" s="1"/>
       <c r="BJ84" s="1"/>
       <c r="BK84" s="1"/>
-      <c r="BL84" s="8"/>
-      <c r="BM84" s="8"/>
+      <c r="BL84" s="1"/>
+      <c r="BM84" s="1"/>
       <c r="BN84" s="8"/>
       <c r="BO84" s="8"/>
       <c r="BP84" s="8"/>
@@ -8171,10 +8468,12 @@
       <c r="BY84" s="8"/>
       <c r="BZ84" s="8"/>
       <c r="CA84" s="8"/>
-      <c r="CB84" s="1"/>
+      <c r="CB84" s="8"/>
       <c r="CC84" s="8"/>
-    </row>
-    <row r="85" spans="1:81" ht="12.75" customHeight="1">
+      <c r="CD84" s="1"/>
+      <c r="CE84" s="8"/>
+    </row>
+    <row r="85" spans="1:83" ht="12.75" customHeight="1">
       <c r="A85" s="2"/>
       <c r="B85" s="6"/>
       <c r="C85" s="7"/>
@@ -8197,9 +8496,9 @@
       <c r="T85" s="1"/>
       <c r="U85" s="1"/>
       <c r="V85" s="1"/>
-      <c r="W85" s="11"/>
+      <c r="W85" s="1"/>
       <c r="X85" s="1"/>
-      <c r="Y85" s="1"/>
+      <c r="Y85" s="11"/>
       <c r="Z85" s="1"/>
       <c r="AA85" s="1"/>
       <c r="AB85" s="1"/>
@@ -8238,8 +8537,8 @@
       <c r="BI85" s="1"/>
       <c r="BJ85" s="1"/>
       <c r="BK85" s="1"/>
-      <c r="BL85" s="8"/>
-      <c r="BM85" s="8"/>
+      <c r="BL85" s="1"/>
+      <c r="BM85" s="1"/>
       <c r="BN85" s="8"/>
       <c r="BO85" s="8"/>
       <c r="BP85" s="8"/>
@@ -8254,10 +8553,12 @@
       <c r="BY85" s="8"/>
       <c r="BZ85" s="8"/>
       <c r="CA85" s="8"/>
-      <c r="CB85" s="1"/>
+      <c r="CB85" s="8"/>
       <c r="CC85" s="8"/>
-    </row>
-    <row r="86" spans="1:81" ht="12.75" customHeight="1">
+      <c r="CD85" s="1"/>
+      <c r="CE85" s="8"/>
+    </row>
+    <row r="86" spans="1:83" ht="12.75" customHeight="1">
       <c r="A86" s="2"/>
       <c r="B86" s="6"/>
       <c r="C86" s="7"/>
@@ -8280,9 +8581,9 @@
       <c r="T86" s="1"/>
       <c r="U86" s="1"/>
       <c r="V86" s="1"/>
-      <c r="W86" s="11"/>
+      <c r="W86" s="1"/>
       <c r="X86" s="1"/>
-      <c r="Y86" s="1"/>
+      <c r="Y86" s="11"/>
       <c r="Z86" s="1"/>
       <c r="AA86" s="1"/>
       <c r="AB86" s="1"/>
@@ -8321,8 +8622,8 @@
       <c r="BI86" s="1"/>
       <c r="BJ86" s="1"/>
       <c r="BK86" s="1"/>
-      <c r="BL86" s="8"/>
-      <c r="BM86" s="8"/>
+      <c r="BL86" s="1"/>
+      <c r="BM86" s="1"/>
       <c r="BN86" s="8"/>
       <c r="BO86" s="8"/>
       <c r="BP86" s="8"/>
@@ -8337,10 +8638,12 @@
       <c r="BY86" s="8"/>
       <c r="BZ86" s="8"/>
       <c r="CA86" s="8"/>
-      <c r="CB86" s="1"/>
+      <c r="CB86" s="8"/>
       <c r="CC86" s="8"/>
-    </row>
-    <row r="87" spans="1:81" ht="12.75" customHeight="1">
+      <c r="CD86" s="1"/>
+      <c r="CE86" s="8"/>
+    </row>
+    <row r="87" spans="1:83" ht="12.75" customHeight="1">
       <c r="A87" s="2"/>
       <c r="B87" s="6"/>
       <c r="C87" s="7"/>
@@ -8363,9 +8666,9 @@
       <c r="T87" s="1"/>
       <c r="U87" s="1"/>
       <c r="V87" s="1"/>
-      <c r="W87" s="11"/>
+      <c r="W87" s="1"/>
       <c r="X87" s="1"/>
-      <c r="Y87" s="1"/>
+      <c r="Y87" s="11"/>
       <c r="Z87" s="1"/>
       <c r="AA87" s="1"/>
       <c r="AB87" s="1"/>
@@ -8404,8 +8707,8 @@
       <c r="BI87" s="1"/>
       <c r="BJ87" s="1"/>
       <c r="BK87" s="1"/>
-      <c r="BL87" s="8"/>
-      <c r="BM87" s="8"/>
+      <c r="BL87" s="1"/>
+      <c r="BM87" s="1"/>
       <c r="BN87" s="8"/>
       <c r="BO87" s="8"/>
       <c r="BP87" s="8"/>
@@ -8420,10 +8723,12 @@
       <c r="BY87" s="8"/>
       <c r="BZ87" s="8"/>
       <c r="CA87" s="8"/>
-      <c r="CB87" s="1"/>
+      <c r="CB87" s="8"/>
       <c r="CC87" s="8"/>
-    </row>
-    <row r="88" spans="1:81" ht="12.75" customHeight="1">
+      <c r="CD87" s="1"/>
+      <c r="CE87" s="8"/>
+    </row>
+    <row r="88" spans="1:83" ht="12.75" customHeight="1">
       <c r="A88" s="2"/>
       <c r="B88" s="6"/>
       <c r="C88" s="7"/>
@@ -8446,9 +8751,9 @@
       <c r="T88" s="1"/>
       <c r="U88" s="1"/>
       <c r="V88" s="1"/>
-      <c r="W88" s="11"/>
+      <c r="W88" s="1"/>
       <c r="X88" s="1"/>
-      <c r="Y88" s="1"/>
+      <c r="Y88" s="11"/>
       <c r="Z88" s="1"/>
       <c r="AA88" s="1"/>
       <c r="AB88" s="1"/>
@@ -8487,8 +8792,8 @@
       <c r="BI88" s="1"/>
       <c r="BJ88" s="1"/>
       <c r="BK88" s="1"/>
-      <c r="BL88" s="8"/>
-      <c r="BM88" s="8"/>
+      <c r="BL88" s="1"/>
+      <c r="BM88" s="1"/>
       <c r="BN88" s="8"/>
       <c r="BO88" s="8"/>
       <c r="BP88" s="8"/>
@@ -8503,10 +8808,12 @@
       <c r="BY88" s="8"/>
       <c r="BZ88" s="8"/>
       <c r="CA88" s="8"/>
-      <c r="CB88" s="1"/>
+      <c r="CB88" s="8"/>
       <c r="CC88" s="8"/>
-    </row>
-    <row r="89" spans="1:81" ht="12.75" customHeight="1">
+      <c r="CD88" s="1"/>
+      <c r="CE88" s="8"/>
+    </row>
+    <row r="89" spans="1:83" ht="12.75" customHeight="1">
       <c r="A89" s="2"/>
       <c r="B89" s="6"/>
       <c r="C89" s="7"/>
@@ -8529,9 +8836,9 @@
       <c r="T89" s="1"/>
       <c r="U89" s="1"/>
       <c r="V89" s="1"/>
-      <c r="W89" s="11"/>
+      <c r="W89" s="1"/>
       <c r="X89" s="1"/>
-      <c r="Y89" s="1"/>
+      <c r="Y89" s="11"/>
       <c r="Z89" s="1"/>
       <c r="AA89" s="1"/>
       <c r="AB89" s="1"/>
@@ -8570,8 +8877,8 @@
       <c r="BI89" s="1"/>
       <c r="BJ89" s="1"/>
       <c r="BK89" s="1"/>
-      <c r="BL89" s="8"/>
-      <c r="BM89" s="8"/>
+      <c r="BL89" s="1"/>
+      <c r="BM89" s="1"/>
       <c r="BN89" s="8"/>
       <c r="BO89" s="8"/>
       <c r="BP89" s="8"/>
@@ -8586,10 +8893,12 @@
       <c r="BY89" s="8"/>
       <c r="BZ89" s="8"/>
       <c r="CA89" s="8"/>
-      <c r="CB89" s="1"/>
+      <c r="CB89" s="8"/>
       <c r="CC89" s="8"/>
-    </row>
-    <row r="90" spans="1:81" ht="12.75" customHeight="1">
+      <c r="CD89" s="1"/>
+      <c r="CE89" s="8"/>
+    </row>
+    <row r="90" spans="1:83" ht="12.75" customHeight="1">
       <c r="A90" s="2"/>
       <c r="B90" s="6"/>
       <c r="C90" s="7"/>
@@ -8612,9 +8921,9 @@
       <c r="T90" s="1"/>
       <c r="U90" s="1"/>
       <c r="V90" s="1"/>
-      <c r="W90" s="11"/>
+      <c r="W90" s="1"/>
       <c r="X90" s="1"/>
-      <c r="Y90" s="1"/>
+      <c r="Y90" s="11"/>
       <c r="Z90" s="1"/>
       <c r="AA90" s="1"/>
       <c r="AB90" s="1"/>
@@ -8653,8 +8962,8 @@
       <c r="BI90" s="1"/>
       <c r="BJ90" s="1"/>
       <c r="BK90" s="1"/>
-      <c r="BL90" s="8"/>
-      <c r="BM90" s="8"/>
+      <c r="BL90" s="1"/>
+      <c r="BM90" s="1"/>
       <c r="BN90" s="8"/>
       <c r="BO90" s="8"/>
       <c r="BP90" s="8"/>
@@ -8669,10 +8978,12 @@
       <c r="BY90" s="8"/>
       <c r="BZ90" s="8"/>
       <c r="CA90" s="8"/>
-      <c r="CB90" s="1"/>
+      <c r="CB90" s="8"/>
       <c r="CC90" s="8"/>
-    </row>
-    <row r="91" spans="1:81" ht="12.75" customHeight="1">
+      <c r="CD90" s="1"/>
+      <c r="CE90" s="8"/>
+    </row>
+    <row r="91" spans="1:83" ht="12.75" customHeight="1">
       <c r="A91" s="2"/>
       <c r="B91" s="6"/>
       <c r="C91" s="7"/>
@@ -8695,9 +9006,9 @@
       <c r="T91" s="1"/>
       <c r="U91" s="1"/>
       <c r="V91" s="1"/>
-      <c r="W91" s="11"/>
+      <c r="W91" s="1"/>
       <c r="X91" s="1"/>
-      <c r="Y91" s="1"/>
+      <c r="Y91" s="11"/>
       <c r="Z91" s="1"/>
       <c r="AA91" s="1"/>
       <c r="AB91" s="1"/>
@@ -8736,8 +9047,8 @@
       <c r="BI91" s="1"/>
       <c r="BJ91" s="1"/>
       <c r="BK91" s="1"/>
-      <c r="BL91" s="8"/>
-      <c r="BM91" s="8"/>
+      <c r="BL91" s="1"/>
+      <c r="BM91" s="1"/>
       <c r="BN91" s="8"/>
       <c r="BO91" s="8"/>
       <c r="BP91" s="8"/>
@@ -8752,10 +9063,12 @@
       <c r="BY91" s="8"/>
       <c r="BZ91" s="8"/>
       <c r="CA91" s="8"/>
-      <c r="CB91" s="1"/>
+      <c r="CB91" s="8"/>
       <c r="CC91" s="8"/>
-    </row>
-    <row r="92" spans="1:81" ht="12.75" customHeight="1">
+      <c r="CD91" s="1"/>
+      <c r="CE91" s="8"/>
+    </row>
+    <row r="92" spans="1:83" ht="12.75" customHeight="1">
       <c r="A92" s="2"/>
       <c r="B92" s="6"/>
       <c r="C92" s="7"/>
@@ -8778,9 +9091,9 @@
       <c r="T92" s="1"/>
       <c r="U92" s="1"/>
       <c r="V92" s="1"/>
-      <c r="W92" s="11"/>
+      <c r="W92" s="1"/>
       <c r="X92" s="1"/>
-      <c r="Y92" s="1"/>
+      <c r="Y92" s="11"/>
       <c r="Z92" s="1"/>
       <c r="AA92" s="1"/>
       <c r="AB92" s="1"/>
@@ -8819,8 +9132,8 @@
       <c r="BI92" s="1"/>
       <c r="BJ92" s="1"/>
       <c r="BK92" s="1"/>
-      <c r="BL92" s="8"/>
-      <c r="BM92" s="8"/>
+      <c r="BL92" s="1"/>
+      <c r="BM92" s="1"/>
       <c r="BN92" s="8"/>
       <c r="BO92" s="8"/>
       <c r="BP92" s="8"/>
@@ -8835,10 +9148,12 @@
       <c r="BY92" s="8"/>
       <c r="BZ92" s="8"/>
       <c r="CA92" s="8"/>
-      <c r="CB92" s="1"/>
+      <c r="CB92" s="8"/>
       <c r="CC92" s="8"/>
-    </row>
-    <row r="93" spans="1:81" ht="12.75" customHeight="1">
+      <c r="CD92" s="1"/>
+      <c r="CE92" s="8"/>
+    </row>
+    <row r="93" spans="1:83" ht="12.75" customHeight="1">
       <c r="A93" s="2"/>
       <c r="B93" s="6"/>
       <c r="C93" s="7"/>
@@ -8861,9 +9176,9 @@
       <c r="T93" s="1"/>
       <c r="U93" s="1"/>
       <c r="V93" s="1"/>
-      <c r="W93" s="11"/>
+      <c r="W93" s="1"/>
       <c r="X93" s="1"/>
-      <c r="Y93" s="1"/>
+      <c r="Y93" s="11"/>
       <c r="Z93" s="1"/>
       <c r="AA93" s="1"/>
       <c r="AB93" s="1"/>
@@ -8902,8 +9217,8 @@
       <c r="BI93" s="1"/>
       <c r="BJ93" s="1"/>
       <c r="BK93" s="1"/>
-      <c r="BL93" s="8"/>
-      <c r="BM93" s="8"/>
+      <c r="BL93" s="1"/>
+      <c r="BM93" s="1"/>
       <c r="BN93" s="8"/>
       <c r="BO93" s="8"/>
       <c r="BP93" s="8"/>
@@ -8918,10 +9233,12 @@
       <c r="BY93" s="8"/>
       <c r="BZ93" s="8"/>
       <c r="CA93" s="8"/>
-      <c r="CB93" s="1"/>
+      <c r="CB93" s="8"/>
       <c r="CC93" s="8"/>
-    </row>
-    <row r="94" spans="1:81" ht="12.75" customHeight="1">
+      <c r="CD93" s="1"/>
+      <c r="CE93" s="8"/>
+    </row>
+    <row r="94" spans="1:83" ht="12.75" customHeight="1">
       <c r="A94" s="2"/>
       <c r="B94" s="6"/>
       <c r="C94" s="7"/>
@@ -8944,9 +9261,9 @@
       <c r="T94" s="1"/>
       <c r="U94" s="1"/>
       <c r="V94" s="1"/>
-      <c r="W94" s="11"/>
+      <c r="W94" s="1"/>
       <c r="X94" s="1"/>
-      <c r="Y94" s="1"/>
+      <c r="Y94" s="11"/>
       <c r="Z94" s="1"/>
       <c r="AA94" s="1"/>
       <c r="AB94" s="1"/>
@@ -8985,8 +9302,8 @@
       <c r="BI94" s="1"/>
       <c r="BJ94" s="1"/>
       <c r="BK94" s="1"/>
-      <c r="BL94" s="8"/>
-      <c r="BM94" s="8"/>
+      <c r="BL94" s="1"/>
+      <c r="BM94" s="1"/>
       <c r="BN94" s="8"/>
       <c r="BO94" s="8"/>
       <c r="BP94" s="8"/>
@@ -9001,10 +9318,12 @@
       <c r="BY94" s="8"/>
       <c r="BZ94" s="8"/>
       <c r="CA94" s="8"/>
-      <c r="CB94" s="1"/>
+      <c r="CB94" s="8"/>
       <c r="CC94" s="8"/>
-    </row>
-    <row r="95" spans="1:81" ht="12.75" customHeight="1">
+      <c r="CD94" s="1"/>
+      <c r="CE94" s="8"/>
+    </row>
+    <row r="95" spans="1:83" ht="12.75" customHeight="1">
       <c r="A95" s="2"/>
       <c r="B95" s="6"/>
       <c r="C95" s="7"/>
@@ -9027,9 +9346,9 @@
       <c r="T95" s="1"/>
       <c r="U95" s="1"/>
       <c r="V95" s="1"/>
-      <c r="W95" s="11"/>
+      <c r="W95" s="1"/>
       <c r="X95" s="1"/>
-      <c r="Y95" s="1"/>
+      <c r="Y95" s="11"/>
       <c r="Z95" s="1"/>
       <c r="AA95" s="1"/>
       <c r="AB95" s="1"/>
@@ -9068,8 +9387,8 @@
       <c r="BI95" s="1"/>
       <c r="BJ95" s="1"/>
       <c r="BK95" s="1"/>
-      <c r="BL95" s="8"/>
-      <c r="BM95" s="8"/>
+      <c r="BL95" s="1"/>
+      <c r="BM95" s="1"/>
       <c r="BN95" s="8"/>
       <c r="BO95" s="8"/>
       <c r="BP95" s="8"/>
@@ -9084,10 +9403,12 @@
       <c r="BY95" s="8"/>
       <c r="BZ95" s="8"/>
       <c r="CA95" s="8"/>
-      <c r="CB95" s="1"/>
+      <c r="CB95" s="8"/>
       <c r="CC95" s="8"/>
-    </row>
-    <row r="96" spans="1:81" ht="12.75" customHeight="1">
+      <c r="CD95" s="1"/>
+      <c r="CE95" s="8"/>
+    </row>
+    <row r="96" spans="1:83" ht="12.75" customHeight="1">
       <c r="A96" s="2"/>
       <c r="B96" s="6"/>
       <c r="C96" s="7"/>
@@ -9110,9 +9431,9 @@
       <c r="T96" s="1"/>
       <c r="U96" s="1"/>
       <c r="V96" s="1"/>
-      <c r="W96" s="11"/>
+      <c r="W96" s="1"/>
       <c r="X96" s="1"/>
-      <c r="Y96" s="1"/>
+      <c r="Y96" s="11"/>
       <c r="Z96" s="1"/>
       <c r="AA96" s="1"/>
       <c r="AB96" s="1"/>
@@ -9151,8 +9472,8 @@
       <c r="BI96" s="1"/>
       <c r="BJ96" s="1"/>
       <c r="BK96" s="1"/>
-      <c r="BL96" s="8"/>
-      <c r="BM96" s="8"/>
+      <c r="BL96" s="1"/>
+      <c r="BM96" s="1"/>
       <c r="BN96" s="8"/>
       <c r="BO96" s="8"/>
       <c r="BP96" s="8"/>
@@ -9167,10 +9488,12 @@
       <c r="BY96" s="8"/>
       <c r="BZ96" s="8"/>
       <c r="CA96" s="8"/>
-      <c r="CB96" s="1"/>
+      <c r="CB96" s="8"/>
       <c r="CC96" s="8"/>
-    </row>
-    <row r="97" spans="1:81" ht="12.75" customHeight="1">
+      <c r="CD96" s="1"/>
+      <c r="CE96" s="8"/>
+    </row>
+    <row r="97" spans="1:83" ht="12.75" customHeight="1">
       <c r="A97" s="2"/>
       <c r="B97" s="6"/>
       <c r="C97" s="7"/>
@@ -9193,9 +9516,9 @@
       <c r="T97" s="1"/>
       <c r="U97" s="1"/>
       <c r="V97" s="1"/>
-      <c r="W97" s="11"/>
+      <c r="W97" s="1"/>
       <c r="X97" s="1"/>
-      <c r="Y97" s="1"/>
+      <c r="Y97" s="11"/>
       <c r="Z97" s="1"/>
       <c r="AA97" s="1"/>
       <c r="AB97" s="1"/>
@@ -9234,8 +9557,8 @@
       <c r="BI97" s="1"/>
       <c r="BJ97" s="1"/>
       <c r="BK97" s="1"/>
-      <c r="BL97" s="8"/>
-      <c r="BM97" s="8"/>
+      <c r="BL97" s="1"/>
+      <c r="BM97" s="1"/>
       <c r="BN97" s="8"/>
       <c r="BO97" s="8"/>
       <c r="BP97" s="8"/>
@@ -9250,10 +9573,12 @@
       <c r="BY97" s="8"/>
       <c r="BZ97" s="8"/>
       <c r="CA97" s="8"/>
-      <c r="CB97" s="1"/>
+      <c r="CB97" s="8"/>
       <c r="CC97" s="8"/>
-    </row>
-    <row r="98" spans="1:81" ht="12.75" customHeight="1">
+      <c r="CD97" s="1"/>
+      <c r="CE97" s="8"/>
+    </row>
+    <row r="98" spans="1:83" ht="12.75" customHeight="1">
       <c r="A98" s="2"/>
       <c r="B98" s="6"/>
       <c r="C98" s="7"/>
@@ -9276,9 +9601,9 @@
       <c r="T98" s="1"/>
       <c r="U98" s="1"/>
       <c r="V98" s="1"/>
-      <c r="W98" s="11"/>
+      <c r="W98" s="1"/>
       <c r="X98" s="1"/>
-      <c r="Y98" s="1"/>
+      <c r="Y98" s="11"/>
       <c r="Z98" s="1"/>
       <c r="AA98" s="1"/>
       <c r="AB98" s="1"/>
@@ -9317,8 +9642,8 @@
       <c r="BI98" s="1"/>
       <c r="BJ98" s="1"/>
       <c r="BK98" s="1"/>
-      <c r="BL98" s="8"/>
-      <c r="BM98" s="8"/>
+      <c r="BL98" s="1"/>
+      <c r="BM98" s="1"/>
       <c r="BN98" s="8"/>
       <c r="BO98" s="8"/>
       <c r="BP98" s="8"/>
@@ -9333,10 +9658,12 @@
       <c r="BY98" s="8"/>
       <c r="BZ98" s="8"/>
       <c r="CA98" s="8"/>
-      <c r="CB98" s="1"/>
+      <c r="CB98" s="8"/>
       <c r="CC98" s="8"/>
-    </row>
-    <row r="99" spans="1:81" ht="12.75" customHeight="1">
+      <c r="CD98" s="1"/>
+      <c r="CE98" s="8"/>
+    </row>
+    <row r="99" spans="1:83" ht="12.75" customHeight="1">
       <c r="A99" s="2"/>
       <c r="B99" s="6"/>
       <c r="C99" s="7"/>
@@ -9359,9 +9686,9 @@
       <c r="T99" s="1"/>
       <c r="U99" s="1"/>
       <c r="V99" s="1"/>
-      <c r="W99" s="11"/>
+      <c r="W99" s="1"/>
       <c r="X99" s="1"/>
-      <c r="Y99" s="1"/>
+      <c r="Y99" s="11"/>
       <c r="Z99" s="1"/>
       <c r="AA99" s="1"/>
       <c r="AB99" s="1"/>
@@ -9400,8 +9727,8 @@
       <c r="BI99" s="1"/>
       <c r="BJ99" s="1"/>
       <c r="BK99" s="1"/>
-      <c r="BL99" s="8"/>
-      <c r="BM99" s="8"/>
+      <c r="BL99" s="1"/>
+      <c r="BM99" s="1"/>
       <c r="BN99" s="8"/>
       <c r="BO99" s="8"/>
       <c r="BP99" s="8"/>
@@ -9416,10 +9743,12 @@
       <c r="BY99" s="8"/>
       <c r="BZ99" s="8"/>
       <c r="CA99" s="8"/>
-      <c r="CB99" s="1"/>
+      <c r="CB99" s="8"/>
       <c r="CC99" s="8"/>
-    </row>
-    <row r="100" spans="1:81" ht="12.75" customHeight="1">
+      <c r="CD99" s="1"/>
+      <c r="CE99" s="8"/>
+    </row>
+    <row r="100" spans="1:83" ht="12.75" customHeight="1">
       <c r="A100" s="2"/>
       <c r="B100" s="6"/>
       <c r="C100" s="7"/>
@@ -9442,9 +9771,9 @@
       <c r="T100" s="1"/>
       <c r="U100" s="1"/>
       <c r="V100" s="1"/>
-      <c r="W100" s="11"/>
+      <c r="W100" s="1"/>
       <c r="X100" s="1"/>
-      <c r="Y100" s="1"/>
+      <c r="Y100" s="11"/>
       <c r="Z100" s="1"/>
       <c r="AA100" s="1"/>
       <c r="AB100" s="1"/>
@@ -9483,8 +9812,8 @@
       <c r="BI100" s="1"/>
       <c r="BJ100" s="1"/>
       <c r="BK100" s="1"/>
-      <c r="BL100" s="8"/>
-      <c r="BM100" s="8"/>
+      <c r="BL100" s="1"/>
+      <c r="BM100" s="1"/>
       <c r="BN100" s="8"/>
       <c r="BO100" s="8"/>
       <c r="BP100" s="8"/>
@@ -9499,10 +9828,12 @@
       <c r="BY100" s="8"/>
       <c r="BZ100" s="8"/>
       <c r="CA100" s="8"/>
-      <c r="CB100" s="1"/>
+      <c r="CB100" s="8"/>
       <c r="CC100" s="8"/>
-    </row>
-    <row r="101" spans="1:81" ht="12.75" customHeight="1">
+      <c r="CD100" s="1"/>
+      <c r="CE100" s="8"/>
+    </row>
+    <row r="101" spans="1:83" ht="12.75" customHeight="1">
       <c r="A101" s="2"/>
       <c r="B101" s="6"/>
       <c r="C101" s="7"/>
@@ -9525,9 +9856,9 @@
       <c r="T101" s="1"/>
       <c r="U101" s="1"/>
       <c r="V101" s="1"/>
-      <c r="W101" s="11"/>
+      <c r="W101" s="1"/>
       <c r="X101" s="1"/>
-      <c r="Y101" s="1"/>
+      <c r="Y101" s="11"/>
       <c r="Z101" s="1"/>
       <c r="AA101" s="1"/>
       <c r="AB101" s="1"/>
@@ -9566,8 +9897,8 @@
       <c r="BI101" s="1"/>
       <c r="BJ101" s="1"/>
       <c r="BK101" s="1"/>
-      <c r="BL101" s="8"/>
-      <c r="BM101" s="8"/>
+      <c r="BL101" s="1"/>
+      <c r="BM101" s="1"/>
       <c r="BN101" s="8"/>
       <c r="BO101" s="8"/>
       <c r="BP101" s="8"/>
@@ -9582,10 +9913,12 @@
       <c r="BY101" s="8"/>
       <c r="BZ101" s="8"/>
       <c r="CA101" s="8"/>
-      <c r="CB101" s="1"/>
+      <c r="CB101" s="8"/>
       <c r="CC101" s="8"/>
-    </row>
-    <row r="102" spans="1:81" ht="12.75" customHeight="1">
+      <c r="CD101" s="1"/>
+      <c r="CE101" s="8"/>
+    </row>
+    <row r="102" spans="1:83" ht="12.75" customHeight="1">
       <c r="A102" s="2"/>
       <c r="B102" s="6"/>
       <c r="C102" s="7"/>
@@ -9608,9 +9941,9 @@
       <c r="T102" s="1"/>
       <c r="U102" s="1"/>
       <c r="V102" s="1"/>
-      <c r="W102" s="11"/>
+      <c r="W102" s="1"/>
       <c r="X102" s="1"/>
-      <c r="Y102" s="1"/>
+      <c r="Y102" s="11"/>
       <c r="Z102" s="1"/>
       <c r="AA102" s="1"/>
       <c r="AB102" s="1"/>
@@ -9649,8 +9982,8 @@
       <c r="BI102" s="1"/>
       <c r="BJ102" s="1"/>
       <c r="BK102" s="1"/>
-      <c r="BL102" s="8"/>
-      <c r="BM102" s="8"/>
+      <c r="BL102" s="1"/>
+      <c r="BM102" s="1"/>
       <c r="BN102" s="8"/>
       <c r="BO102" s="8"/>
       <c r="BP102" s="8"/>
@@ -9665,37 +9998,39 @@
       <c r="BY102" s="8"/>
       <c r="BZ102" s="8"/>
       <c r="CA102" s="8"/>
-      <c r="CB102" s="1"/>
+      <c r="CB102" s="8"/>
       <c r="CC102" s="8"/>
-    </row>
-    <row r="103" spans="1:81" ht="12.75" customHeight="1">
+      <c r="CD102" s="1"/>
+      <c r="CE102" s="8"/>
+    </row>
+    <row r="103" spans="1:83" ht="12.75" customHeight="1">
       <c r="B103" s="9"/>
     </row>
-    <row r="104" spans="1:81" ht="12.75" customHeight="1">
+    <row r="104" spans="1:83" ht="12.75" customHeight="1">
       <c r="B104" s="9"/>
     </row>
-    <row r="105" spans="1:81" ht="12.75" customHeight="1">
+    <row r="105" spans="1:83" ht="12.75" customHeight="1">
       <c r="B105" s="9"/>
     </row>
-    <row r="106" spans="1:81" ht="12.75" customHeight="1">
+    <row r="106" spans="1:83" ht="12.75" customHeight="1">
       <c r="B106" s="9"/>
     </row>
-    <row r="107" spans="1:81" ht="12.75" customHeight="1">
+    <row r="107" spans="1:83" ht="12.75" customHeight="1">
       <c r="B107" s="9"/>
     </row>
-    <row r="108" spans="1:81" ht="12.75" customHeight="1">
+    <row r="108" spans="1:83" ht="12.75" customHeight="1">
       <c r="B108" s="9"/>
     </row>
-    <row r="109" spans="1:81" ht="12.75" customHeight="1">
+    <row r="109" spans="1:83" ht="12.75" customHeight="1">
       <c r="B109" s="9"/>
     </row>
-    <row r="110" spans="1:81" ht="12.75" customHeight="1">
+    <row r="110" spans="1:83" ht="12.75" customHeight="1">
       <c r="B110" s="9"/>
     </row>
-    <row r="111" spans="1:81" ht="12.75" customHeight="1">
+    <row r="111" spans="1:83" ht="12.75" customHeight="1">
       <c r="B111" s="9"/>
     </row>
-    <row r="112" spans="1:81" ht="12.75" customHeight="1">
+    <row r="112" spans="1:83" ht="12.75" customHeight="1">
       <c r="B112" s="9"/>
     </row>
     <row r="113" spans="2:2" ht="12.75" customHeight="1">

--- a/Excel/15_ability.xlsx
+++ b/Excel/15_ability.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hoon\EEA\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E87B2C7-3105-44F8-A762-9C4906BF3E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398C7947-99DC-412F-BDDA-F89B6F733ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40050" yWindow="1515" windowWidth="31680" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4980" yWindow="3270" windowWidth="26175" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -324,7 +324,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="69">
   <si>
     <t>No</t>
   </si>
@@ -560,6 +560,34 @@
   </si>
   <si>
     <t>16000046/16000047/16000048/16000049/16000050/16000051/16000052/16000053/16000054/16000055</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>asset_path_unit</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Ability/ASlashUnit.prefab</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Ability/AFireBallUnit.prefab</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Ability/AFrozonOrbUnit.prefab</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Ability/AOrbSphereUnit.prefab</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>15000001</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -990,10 +1018,10 @@
   <dimension ref="A1:CE1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L6" sqref="L6"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -1007,7 +1035,7 @@
     <col min="13" max="14" width="43.42578125" customWidth="1"/>
     <col min="15" max="15" width="37.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="45.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="39" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="24.5703125" customWidth="1"/>
     <col min="20" max="20" width="37.7109375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="41.5703125" bestFit="1" customWidth="1"/>
@@ -1112,7 +1140,9 @@
       <c r="P1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="1"/>
+      <c r="Q1" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
@@ -1224,7 +1254,9 @@
       <c r="P2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="4"/>
+      <c r="Q2" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
@@ -1292,8 +1324,8 @@
         <f t="shared" ref="A3:A10" si="0">ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="18">
-        <v>15000001</v>
+      <c r="B3" s="18" t="s">
+        <v>68</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>9</v>
@@ -1337,7 +1369,9 @@
       <c r="P3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="Q3" s="1"/>
+      <c r="Q3" s="13" t="s">
+        <v>64</v>
+      </c>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="11"/>
@@ -1450,7 +1484,9 @@
       <c r="P4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="1"/>
+      <c r="Q4" s="13" t="s">
+        <v>65</v>
+      </c>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="11"/>
@@ -1563,7 +1599,9 @@
       <c r="P5" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="Q5" s="1"/>
+      <c r="Q5" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="11"/>
@@ -1644,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="G6" s="13" t="s">
         <v>49</v>
@@ -1676,7 +1714,9 @@
       <c r="P6" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="Q6" s="1"/>
+      <c r="Q6" s="13" t="s">
+        <v>63</v>
+      </c>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" s="11"/>

--- a/Excel/15_ability.xlsx
+++ b/Excel/15_ability.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hoon\EEA\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398C7947-99DC-412F-BDDA-F89B6F733ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E347CD7-A113-45FC-A0C6-F083110ACCBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4980" yWindow="3270" windowWidth="26175" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4020" yWindow="4305" windowWidth="26175" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -324,7 +324,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="76">
   <si>
     <t>No</t>
   </si>
@@ -509,10 +509,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>0.2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>1.5</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -588,6 +584,36 @@
   </si>
   <si>
     <t>15000001</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>메테오</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>16000106/16000107/16000108/16000109/16000110/16000111/16000112/16000113/16000114/16000115</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>15000009</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Ability/AMeteoBody.prefab</t>
+  </si>
+  <si>
+    <t>Prefabs/Ability/AMeteoUnit.prefab</t>
+  </si>
+  <si>
+    <t>UI/Temp/Sprites/UI.png[Select 4]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1021,7 +1047,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -1120,10 +1146,10 @@
         <v>16</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L1" s="13" t="s">
         <v>41</v>
@@ -1141,7 +1167,7 @@
         <v>5</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
@@ -1321,11 +1347,11 @@
     </row>
     <row r="3" spans="1:83" ht="16.5">
       <c r="A3" s="17">
-        <f t="shared" ref="A3:A10" si="0">ROW()-2</f>
+        <f t="shared" ref="A3:A11" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>9</v>
@@ -1370,7 +1396,7 @@
         <v>20</v>
       </c>
       <c r="Q3" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
@@ -1485,7 +1511,7 @@
         <v>21</v>
       </c>
       <c r="Q4" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
@@ -1600,7 +1626,7 @@
         <v>28</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
@@ -1682,25 +1708,25 @@
         <v>0</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="K6" s="13" t="s">
         <v>30</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M6" s="6">
         <v>99000004</v>
@@ -1715,7 +1741,7 @@
         <v>32</v>
       </c>
       <c r="Q6" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
@@ -1806,7 +1832,7 @@
         <v>30</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J7" s="13" t="s">
         <v>30</v>
@@ -1815,7 +1841,7 @@
         <v>30</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M7" s="6">
         <v>99000005</v>
@@ -1917,7 +1943,7 @@
         <v>30</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J8" s="13" t="s">
         <v>30</v>
@@ -1926,7 +1952,7 @@
         <v>30</v>
       </c>
       <c r="L8" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M8" s="6">
         <v>99000006</v>
@@ -2116,10 +2142,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D10" s="13">
         <v>1</v>
@@ -2131,22 +2157,22 @@
         <v>30</v>
       </c>
       <c r="G10" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="13" t="s">
-        <v>31</v>
-      </c>
       <c r="I10" s="13" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L10" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M10" s="6">
         <v>99000008</v>
@@ -2155,10 +2181,10 @@
         <v>99000008</v>
       </c>
       <c r="O10" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P10" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -2223,32 +2249,67 @@
       <c r="BY10" s="1"/>
       <c r="BZ10" s="8"/>
     </row>
-    <row r="11" spans="1:83" ht="12.75" customHeight="1">
-      <c r="A11" s="2"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
+    <row r="11" spans="1:83" ht="16.5">
+      <c r="A11" s="17">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="13">
+        <v>1</v>
+      </c>
+      <c r="E11" s="13">
+        <v>0</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="M11" s="6">
+        <v>99000009</v>
+      </c>
+      <c r="N11" s="6">
+        <v>99000009</v>
+      </c>
+      <c r="O11" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="P11" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
+      <c r="T11" s="11"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
-      <c r="Y11" s="11"/>
+      <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
@@ -2284,11 +2345,11 @@
       <c r="BF11" s="1"/>
       <c r="BG11" s="1"/>
       <c r="BH11" s="1"/>
-      <c r="BI11" s="1"/>
-      <c r="BJ11" s="1"/>
-      <c r="BK11" s="1"/>
-      <c r="BL11" s="1"/>
-      <c r="BM11" s="1"/>
+      <c r="BI11" s="8"/>
+      <c r="BJ11" s="8"/>
+      <c r="BK11" s="8"/>
+      <c r="BL11" s="8"/>
+      <c r="BM11" s="8"/>
       <c r="BN11" s="8"/>
       <c r="BO11" s="8"/>
       <c r="BP11" s="8"/>
@@ -2300,13 +2361,8 @@
       <c r="BV11" s="8"/>
       <c r="BW11" s="8"/>
       <c r="BX11" s="8"/>
-      <c r="BY11" s="8"/>
+      <c r="BY11" s="1"/>
       <c r="BZ11" s="8"/>
-      <c r="CA11" s="8"/>
-      <c r="CB11" s="8"/>
-      <c r="CC11" s="8"/>
-      <c r="CD11" s="1"/>
-      <c r="CE11" s="8"/>
     </row>
     <row r="12" spans="1:83" ht="12.75" customHeight="1">
       <c r="A12" s="2"/>

--- a/Excel/15_ability.xlsx
+++ b/Excel/15_ability.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hoon\EEA\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E347CD7-A113-45FC-A0C6-F083110ACCBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB1D5BDA-330E-447B-B8DC-69C3C3FDAF0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="4305" windowWidth="26175" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6390" yWindow="2820" windowWidth="26175" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -324,7 +324,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="81">
   <si>
     <t>No</t>
   </si>
@@ -614,6 +614,25 @@
   </si>
   <si>
     <t>10</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>15000010</t>
+  </si>
+  <si>
+    <t>레이저</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Ability/ALaserBody.prefab</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Ability/ALaserUnit.prefab</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>16000121/16000122/16000123/16000124/16000125/16000126/16000127/16000128/16000129/16000130</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1044,10 +1063,10 @@
   <dimension ref="A1:CE1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomRight" activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -1347,7 +1366,7 @@
     </row>
     <row r="3" spans="1:83" ht="16.5">
       <c r="A3" s="17">
-        <f t="shared" ref="A3:A11" si="0">ROW()-2</f>
+        <f t="shared" ref="A3:A12" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="18" t="s">
@@ -2273,7 +2292,7 @@
         <v>25</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I11" s="13" t="s">
         <v>69</v>
@@ -2364,32 +2383,67 @@
       <c r="BY11" s="1"/>
       <c r="BZ11" s="8"/>
     </row>
-    <row r="12" spans="1:83" ht="12.75" customHeight="1">
-      <c r="A12" s="2"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
+    <row r="12" spans="1:83" ht="16.5">
+      <c r="A12" s="17">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="13">
+        <v>1</v>
+      </c>
+      <c r="E12" s="13">
+        <v>0</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="M12" s="6">
+        <v>99000010</v>
+      </c>
+      <c r="N12" s="6">
+        <v>99000010</v>
+      </c>
+      <c r="O12" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="P12" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
+      <c r="T12" s="11"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
-      <c r="Y12" s="11"/>
+      <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
@@ -2425,11 +2479,11 @@
       <c r="BF12" s="1"/>
       <c r="BG12" s="1"/>
       <c r="BH12" s="1"/>
-      <c r="BI12" s="1"/>
-      <c r="BJ12" s="1"/>
-      <c r="BK12" s="1"/>
-      <c r="BL12" s="1"/>
-      <c r="BM12" s="1"/>
+      <c r="BI12" s="8"/>
+      <c r="BJ12" s="8"/>
+      <c r="BK12" s="8"/>
+      <c r="BL12" s="8"/>
+      <c r="BM12" s="8"/>
       <c r="BN12" s="8"/>
       <c r="BO12" s="8"/>
       <c r="BP12" s="8"/>
@@ -2441,13 +2495,8 @@
       <c r="BV12" s="8"/>
       <c r="BW12" s="8"/>
       <c r="BX12" s="8"/>
-      <c r="BY12" s="8"/>
+      <c r="BY12" s="1"/>
       <c r="BZ12" s="8"/>
-      <c r="CA12" s="8"/>
-      <c r="CB12" s="8"/>
-      <c r="CC12" s="8"/>
-      <c r="CD12" s="1"/>
-      <c r="CE12" s="8"/>
     </row>
     <row r="13" spans="1:83" ht="12.75" customHeight="1">
       <c r="A13" s="2"/>

--- a/Excel/15_ability.xlsx
+++ b/Excel/15_ability.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hoon\EEA\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB1D5BDA-330E-447B-B8DC-69C3C3FDAF0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792DCD34-ABDA-4610-9FF1-19BEC5CD41E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6390" yWindow="2820" windowWidth="26175" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -324,7 +324,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="82">
   <si>
     <t>No</t>
   </si>
@@ -633,6 +633,10 @@
   </si>
   <si>
     <t>16000121/16000122/16000123/16000124/16000125/16000126/16000127/16000128/16000129/16000130</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>15000003</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1063,10 +1067,10 @@
   <dimension ref="A1:CE1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="H6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L12" sqref="L12"/>
+      <selection pane="bottomRight" activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -1599,8 +1603,8 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="18">
-        <v>15000003</v>
+      <c r="B5" s="18" t="s">
+        <v>81</v>
       </c>
       <c r="C5" s="19" t="s">
         <v>22</v>

--- a/Excel/15_ability.xlsx
+++ b/Excel/15_ability.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hoon\EEA\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792DCD34-ABDA-4610-9FF1-19BEC5CD41E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459A93DB-4E91-4C29-BDDE-358FBB09AFE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6390" yWindow="2820" windowWidth="26175" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -603,12 +603,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>Prefabs/Ability/AMeteoBody.prefab</t>
-  </si>
-  <si>
-    <t>Prefabs/Ability/AMeteoUnit.prefab</t>
-  </si>
-  <si>
     <t>UI/Temp/Sprites/UI.png[Select 4]</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -637,6 +631,14 @@
   </si>
   <si>
     <t>15000003</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Ability/AMeteorUnit.prefab</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Ability/AMeteorBody.prefab</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1067,10 +1069,10 @@
   <dimension ref="A1:CE1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="H6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="O6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L5" sqref="L5"/>
+      <selection pane="bottomRight" activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -1604,7 +1606,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C5" s="19" t="s">
         <v>22</v>
@@ -1740,7 +1742,7 @@
         <v>30</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J6" s="13" t="s">
         <v>24</v>
@@ -2317,13 +2319,13 @@
         <v>99000009</v>
       </c>
       <c r="O11" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P11" s="13" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
@@ -2393,10 +2395,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D12" s="13">
         <v>1</v>
@@ -2414,7 +2416,7 @@
         <v>30</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J12" s="13" t="s">
         <v>26</v>
@@ -2423,7 +2425,7 @@
         <v>30</v>
       </c>
       <c r="L12" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M12" s="6">
         <v>99000010</v>
@@ -2435,10 +2437,10 @@
         <v>34</v>
       </c>
       <c r="P12" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>

--- a/Excel/15_ability.xlsx
+++ b/Excel/15_ability.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hoon\EEA\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459A93DB-4E91-4C29-BDDE-358FBB09AFE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200D725A-BEA4-4E8A-8978-F2CF8254FBE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6390" yWindow="2820" windowWidth="26175" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6750" yWindow="3705" windowWidth="26175" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -324,7 +324,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="86">
   <si>
     <t>No</t>
   </si>
@@ -494,9 +494,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>16000016/16000017/16000018/16000019/16000020/16000021/16000022/16000023/16000024/16000025</t>
-  </si>
-  <si>
     <t>16000001/16000002/16000003/16000004/16000005/16000006/16000007/16000008/16000009/16000010</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -639,6 +636,25 @@
   </si>
   <si>
     <t>Prefabs/Ability/AMeteorBody.prefab</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>asset_path_hit</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>VFX/Electro hit.prefab</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>VFX/Snow hit.prefab</t>
+  </si>
+  <si>
+    <t>15000002</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>16000016/16000017/16000018/16000019/16000020/16000021/16000022/16000023/16000024/16000025</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1069,10 +1085,10 @@
   <dimension ref="A1:CE1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="O6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P12" sqref="P12"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -1171,10 +1187,10 @@
         <v>16</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L1" s="13" t="s">
         <v>41</v>
@@ -1192,9 +1208,11 @@
         <v>5</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="R1" s="1"/>
+        <v>60</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -1308,7 +1326,9 @@
       <c r="Q2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="4"/>
+      <c r="R2" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
       <c r="U2" s="4"/>
@@ -1376,7 +1396,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>9</v>
@@ -1406,7 +1426,7 @@
         <v>30</v>
       </c>
       <c r="L3" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M3" s="6">
         <v>99000001</v>
@@ -1421,9 +1441,11 @@
         <v>20</v>
       </c>
       <c r="Q3" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="R3" s="1"/>
+        <v>62</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="S3" s="1"/>
       <c r="T3" s="11"/>
       <c r="U3" s="1"/>
@@ -1490,8 +1512,8 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B4" s="18">
-        <v>15000002</v>
+      <c r="B4" s="18" t="s">
+        <v>84</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>10</v>
@@ -1521,7 +1543,7 @@
         <v>30</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="M4" s="6">
         <v>99000002</v>
@@ -1536,9 +1558,11 @@
         <v>21</v>
       </c>
       <c r="Q4" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="R4" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="S4" s="1"/>
       <c r="T4" s="11"/>
       <c r="U4" s="1"/>
@@ -1606,7 +1630,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" s="19" t="s">
         <v>22</v>
@@ -1636,7 +1660,7 @@
         <v>30</v>
       </c>
       <c r="L5" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M5" s="6">
         <v>99000003</v>
@@ -1651,9 +1675,11 @@
         <v>28</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R5" s="1"/>
+        <v>64</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="S5" s="1"/>
       <c r="T5" s="11"/>
       <c r="U5" s="1"/>
@@ -1721,7 +1747,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6" s="19" t="s">
         <v>29</v>
@@ -1733,16 +1759,16 @@
         <v>0</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H6" s="13" t="s">
         <v>30</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J6" s="13" t="s">
         <v>24</v>
@@ -1751,7 +1777,7 @@
         <v>30</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M6" s="6">
         <v>99000004</v>
@@ -1766,9 +1792,11 @@
         <v>32</v>
       </c>
       <c r="Q6" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="R6" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="S6" s="1"/>
       <c r="T6" s="11"/>
       <c r="U6" s="1"/>
@@ -1857,7 +1885,7 @@
         <v>30</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J7" s="13" t="s">
         <v>30</v>
@@ -1866,7 +1894,7 @@
         <v>30</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M7" s="6">
         <v>99000005</v>
@@ -1968,7 +1996,7 @@
         <v>30</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J8" s="13" t="s">
         <v>30</v>
@@ -1977,7 +2005,7 @@
         <v>30</v>
       </c>
       <c r="L8" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M8" s="6">
         <v>99000006</v>
@@ -2167,10 +2195,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D10" s="13">
         <v>1</v>
@@ -2194,10 +2222,10 @@
         <v>25</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L10" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M10" s="6">
         <v>99000008</v>
@@ -2206,13 +2234,15 @@
         <v>99000008</v>
       </c>
       <c r="O10" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P10" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
+      <c r="R10" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="S10" s="1"/>
       <c r="T10" s="11"/>
       <c r="U10" s="1"/>
@@ -2280,10 +2310,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D11" s="13">
         <v>1</v>
@@ -2301,7 +2331,7 @@
         <v>30</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J11" s="13" t="s">
         <v>31</v>
@@ -2310,7 +2340,7 @@
         <v>30</v>
       </c>
       <c r="L11" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M11" s="6">
         <v>99000009</v>
@@ -2319,15 +2349,17 @@
         <v>99000009</v>
       </c>
       <c r="O11" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P11" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="R11" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="S11" s="1"/>
       <c r="T11" s="11"/>
       <c r="U11" s="1"/>
@@ -2395,10 +2427,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="19" t="s">
         <v>74</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>75</v>
       </c>
       <c r="D12" s="13">
         <v>1</v>
@@ -2416,7 +2448,7 @@
         <v>30</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J12" s="13" t="s">
         <v>26</v>
@@ -2425,7 +2457,7 @@
         <v>30</v>
       </c>
       <c r="L12" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M12" s="6">
         <v>99000010</v>
@@ -2437,12 +2469,14 @@
         <v>34</v>
       </c>
       <c r="P12" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q12" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="Q12" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="R12" s="1"/>
+      <c r="R12" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="S12" s="1"/>
       <c r="T12" s="11"/>
       <c r="U12" s="1"/>

--- a/Excel/15_ability.xlsx
+++ b/Excel/15_ability.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hoon\EEA\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200D725A-BEA4-4E8A-8978-F2CF8254FBE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C26169CA-EFF2-47D8-A866-43DF95D70D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6750" yWindow="3705" windowWidth="26175" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1890" yWindow="1980" windowWidth="29010" windowHeight="16515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -324,7 +324,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="89">
   <si>
     <t>No</t>
   </si>
@@ -397,9 +397,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>UI/Temp/Sprites/UI.png[Select 3]</t>
-  </si>
-  <si>
     <t>Prefabs/Ability/AFireBallBody.prefab</t>
   </si>
   <si>
@@ -425,9 +422,6 @@
   <si>
     <t>5</t>
     <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI/Temp/Sprites/UI.png[Select 0]</t>
   </si>
   <si>
     <t>Prefabs/Ability/AOrbSphereBody.prefab</t>
@@ -508,9 +502,6 @@
   <si>
     <t>1.5</t>
     <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI/Temp/Sprites/UI.png[Select 9]</t>
   </si>
   <si>
     <t>프리즌서클</t>
@@ -600,10 +591,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>UI/Temp/Sprites/UI.png[Select 4]</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>10</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -656,6 +643,27 @@
   <si>
     <t>16000016/16000017/16000018/16000019/16000020/16000021/16000022/16000023/16000024/16000025</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/Abilities/_1.png</t>
+  </si>
+  <si>
+    <t>UI/Abilities/_4.png</t>
+  </si>
+  <si>
+    <t>UI/Abilities/_5.png</t>
+  </si>
+  <si>
+    <t>UI/Abilities/_3.png</t>
+  </si>
+  <si>
+    <t>UI/Abilities/_2.png</t>
+  </si>
+  <si>
+    <t>UI/Abilities/_6.png</t>
+  </si>
+  <si>
+    <t>UI/Abilities/_7.png</t>
   </si>
 </sst>
 </file>
@@ -1085,10 +1093,10 @@
   <dimension ref="A1:CE1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -1187,19 +1195,19 @@
         <v>16</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L1" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" s="13" t="s">
         <v>41</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>43</v>
       </c>
       <c r="O1" s="13" t="s">
         <v>18</v>
@@ -1208,10 +1216,10 @@
         <v>5</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
@@ -1396,7 +1404,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>9</v>
@@ -1420,13 +1428,13 @@
         <v>8</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L3" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M3" s="6">
         <v>99000001</v>
@@ -1435,16 +1443,16 @@
         <v>99000001</v>
       </c>
       <c r="O3" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="P3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="P3" s="13" t="s">
-        <v>20</v>
-      </c>
       <c r="Q3" s="13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="S3" s="1"/>
       <c r="T3" s="11"/>
@@ -1513,7 +1521,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>10</v>
@@ -1537,13 +1545,13 @@
         <v>4</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="M4" s="6">
         <v>99000002</v>
@@ -1552,16 +1560,16 @@
         <v>99000002</v>
       </c>
       <c r="O4" s="13" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="P4" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q4" s="13" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="S4" s="1"/>
       <c r="T4" s="11"/>
@@ -1630,10 +1638,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="13">
         <v>1</v>
@@ -1642,25 +1650,25 @@
         <v>0</v>
       </c>
       <c r="F5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="H5" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="I5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="13" t="s">
-        <v>26</v>
-      </c>
       <c r="J5" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L5" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M5" s="6">
         <v>99000003</v>
@@ -1669,16 +1677,16 @@
         <v>99000003</v>
       </c>
       <c r="O5" s="13" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="P5" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="S5" s="1"/>
       <c r="T5" s="11"/>
@@ -1747,10 +1755,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6" s="13">
         <v>1</v>
@@ -1759,25 +1767,25 @@
         <v>0</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="M6" s="6">
         <v>99000004</v>
@@ -1786,16 +1794,16 @@
         <v>99000004</v>
       </c>
       <c r="O6" s="13" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="P6" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="S6" s="1"/>
       <c r="T6" s="11"/>
@@ -1867,34 +1875,34 @@
         <v>15000005</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="M7" s="6">
         <v>99000005</v>
@@ -1903,7 +1911,7 @@
         <v>99000005</v>
       </c>
       <c r="O7" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P7" s="13"/>
       <c r="Q7" s="1"/>
@@ -1978,34 +1986,34 @@
         <v>15000006</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L8" s="13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="M8" s="6">
         <v>99000006</v>
@@ -2014,7 +2022,7 @@
         <v>99000006</v>
       </c>
       <c r="O8" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P8" s="13"/>
       <c r="Q8" s="1"/>
@@ -2089,31 +2097,31 @@
         <v>15000007</v>
       </c>
       <c r="C9" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>40</v>
-      </c>
       <c r="J9" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="13"/>
       <c r="M9" s="6">
@@ -2123,7 +2131,7 @@
         <v>99000007</v>
       </c>
       <c r="O9" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P9" s="13"/>
       <c r="Q9" s="1"/>
@@ -2195,10 +2203,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D10" s="13">
         <v>1</v>
@@ -2207,25 +2215,25 @@
         <v>0</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H10" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>25</v>
-      </c>
       <c r="K10" s="13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L10" s="13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="M10" s="6">
         <v>99000008</v>
@@ -2234,14 +2242,14 @@
         <v>99000008</v>
       </c>
       <c r="O10" s="13" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="P10" s="13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="S10" s="1"/>
       <c r="T10" s="11"/>
@@ -2310,10 +2318,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D11" s="13">
         <v>1</v>
@@ -2322,25 +2330,25 @@
         <v>0</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L11" s="13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M11" s="6">
         <v>99000009</v>
@@ -2349,16 +2357,16 @@
         <v>99000009</v>
       </c>
       <c r="O11" s="13" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="P11" s="13" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="S11" s="1"/>
       <c r="T11" s="11"/>
@@ -2427,10 +2435,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D12" s="13">
         <v>1</v>
@@ -2439,25 +2447,25 @@
         <v>0</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="J12" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="J12" s="13" t="s">
-        <v>26</v>
-      </c>
       <c r="K12" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="13" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="M12" s="6">
         <v>99000010</v>
@@ -2466,16 +2474,16 @@
         <v>99000010</v>
       </c>
       <c r="O12" s="13" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="P12" s="13" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="S12" s="1"/>
       <c r="T12" s="11"/>
